--- a/tomfebn.xlsx
+++ b/tomfebn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alolinco/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alolinco/Desktop/Research/tom-fe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F950BD-09AA-6D44-B661-3435BD3767FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CF04C-E9B5-D44F-A50F-E14D5DAB7323}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7460" yWindow="460" windowWidth="24240" windowHeight="19940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,8 +90,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{855C9EE9-9635-6341-BB8D-3820276E7B8E}" name="run1_coordinates_end" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt6311+g-star/run1/run1_coordinates_end.rtf" space="1" consecutive="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="run1_coordinates_end" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt6311+g-star/run1/run1_coordinates_end.rtf" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -106,7 +106,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="testtomfe" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="testtomfe" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" tab="0" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -120,7 +120,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="tomfe_6311+g*" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="tomfe_6311+g*" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -136,7 +136,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="tomfe_631g" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="tomfe_631g" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" space="1" consecutive="1">
       <textFields count="7">
         <textField/>
@@ -149,7 +149,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="tomfe1-02coor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="tomfe1-02coor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe1-02coor.rtf" tab="0" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -165,7 +165,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="tomfebn_start02" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="tomfebn_start02" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfebn_start02.rtf" space="1" consecutive="1">
       <textFields count="7">
         <textField/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="36">
   <si>
     <t>Fe</t>
   </si>
@@ -288,6 +288,9 @@
   <si>
     <t>Start 6-311+g*</t>
   </si>
+  <si>
+    <t>End 6-311+g*</t>
+  </si>
 </sst>
 </file>
 
@@ -380,7 +383,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="run1_coordinates_end" connectionId="4" xr16:uid="{6A8E4A0D-49BA-034A-B812-4DC2B7085193}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="run1_coordinates_end" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,7 +403,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="First_20" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="First_20" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000008000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4196,7 +4199,7 @@
   <dimension ref="A1:AP75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3:AK74"/>
+      <selection activeCell="AM3" sqref="AM3:AP74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4224,7 +4227,7 @@
     <col min="33" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5" customWidth="1"/>
     <col min="41" max="42" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -4279,6 +4282,9 @@
       </c>
       <c r="AH2" t="s">
         <v>34</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">

--- a/tomfebn.xlsx
+++ b/tomfebn.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alolinco/Desktop/Research/tom-fe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D712D39-7C1F-8D44-859A-FD72C29DDEF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5289C5FF-B228-6E4D-A85C-AA568E93189E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="660" windowWidth="24240" windowHeight="19940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="660" windowWidth="24240" windowHeight="19940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="UTD sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Fall 2018 coords" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_2018_1fe03_coordinates" localSheetId="1">'UTD sheet'!$AB$1:$AI$73</definedName>
     <definedName name="_2018.06.15_coordinates" localSheetId="1">'UTD sheet'!$W$3:$AC$76</definedName>
+    <definedName name="fedft05_coords" localSheetId="2">'Fall 2018 coords'!$P$2:$Y$74</definedName>
+    <definedName name="feopt05_6311g_coords" localSheetId="3">Sheet2!$A$1:$J$72</definedName>
+    <definedName name="feopt05_coords" localSheetId="1">'UTD sheet'!$CS$3:$DB$75</definedName>
     <definedName name="fescf02_631g_coor" localSheetId="1">'UTD sheet'!$AV$3:$BD$74</definedName>
     <definedName name="fescf04_coords" localSheetId="1">'UTD sheet'!$BK$3:$BT$74</definedName>
     <definedName name="fescf04_s30_coords" localSheetId="1">'UTD sheet'!$BU$3:$CC$74</definedName>
-    <definedName name="fescf04_s35_coords" localSheetId="2">Sheet2!$A$1:$J$72</definedName>
+    <definedName name="fescf04_s35_coords" localSheetId="2">'Fall 2018 coords'!$A$1:$J$72</definedName>
     <definedName name="fescf05" localSheetId="1">'UTD sheet'!$CB$2:$CF$73</definedName>
     <definedName name="fescf05_1" localSheetId="1">'UTD sheet'!$CB$1:$CK$72</definedName>
     <definedName name="run1_coordinates_end" localSheetId="1">'UTD sheet'!$AM$3:$AT$75</definedName>
@@ -79,7 +83,73 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{02AA09EE-88A3-0146-8F71-2D458CA775EB}" name="fescf02_631g_coor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{4376AFF7-9AF5-9340-A813-DAA27F9A4124}" name="fedft05_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fedft05_coords.rtf" space="1" consecutive="1" delimiter="\">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{AE60ED89-89EE-D647-AC36-34EE68D47419}" name="feopt05_6311g_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt6311g/feopt05_6311g_coords.rtf" space="1" consecutive="1" delimiter="\">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{42CE4C14-EBE0-BD4E-A456-3B2BC2FCB249}" name="feopt05_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fe_opt05_20180830/feopt05_coords.rtf" space="1" consecutive="1" delimiter="\">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{02AA09EE-88A3-0146-8F71-2D458CA775EB}" name="fescf02_631g_coor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf02/fescf02_631g_coor.rtf" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -95,7 +165,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{4F88F51A-9ACF-0043-97FB-09DD6C883B08}" name="fescf04_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" xr16:uid="{4F88F51A-9ACF-0043-97FB-09DD6C883B08}" name="fescf04_coords" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf04_coords.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -117,7 +187,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{AF90CF41-864B-284F-9638-9593176733EF}" name="fescf04_s30_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" xr16:uid="{AF90CF41-864B-284F-9638-9593176733EF}" name="fescf04_s30_coords" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf04_s30_coords.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -139,7 +209,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{8EDD7A7A-542F-9E4D-95A4-33BD898C8051}" name="fescf04_s35_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" xr16:uid="{8EDD7A7A-542F-9E4D-95A4-33BD898C8051}" name="fescf04_s35_coords" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf04_s35_coords.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -161,8 +231,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{D01B20FA-C2DD-FE45-AB19-569113F1FBAE}" name="fescf05" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf05.rtf" delimiter="\">
+  <connection id="10" xr16:uid="{D01B20FA-C2DD-FE45-AB19-569113F1FBAE}" name="fescf05" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf05.rtf" delimiter="\">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -183,8 +253,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{C8DD9D3E-BD82-1B43-A5AF-C6A1AACF6A4E}" name="fescf051" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf05.rtf" space="1" consecutive="1" delimiter="\">
+  <connection id="11" xr16:uid="{C8DD9D3E-BD82-1B43-A5AF-C6A1AACF6A4E}" name="fescf051" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf05.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -205,7 +275,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="run1_coordinates_end" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="run1_coordinates_end" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt6311+g-star/run1/run1_coordinates_end.rtf" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -221,7 +291,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="testtomfe" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="testtomfe" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" tab="0" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -235,7 +305,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="tomfe_6311+g*" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="tomfe_6311+g*" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -251,7 +321,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="tomfe_631g" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="15" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="tomfe_631g" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" space="1" consecutive="1">
       <textFields count="7">
         <textField/>
@@ -264,7 +334,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="tomfe1-02coor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="tomfe1-02coor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe1-02coor.rtf" tab="0" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -280,7 +350,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="tomfebn_start02" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="17" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="tomfebn_start02" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfebn_start02.rtf" space="1" consecutive="1">
       <textFields count="7">
         <textField/>
@@ -297,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="195">
   <si>
     <t>Fe</t>
   </si>
@@ -652,12 +722,243 @@
   <si>
     <t>fescf05</t>
   </si>
+  <si>
+    <t>fedft05</t>
+  </si>
+  <si>
+    <t>readjusted</t>
+  </si>
+  <si>
+    <t>Fe      0.43812606     1.15762126     0.33828849</t>
+  </si>
+  <si>
+    <t>B     -0.25905952    -1.85770559    -0.18852352</t>
+  </si>
+  <si>
+    <t>C     -2.09807229     1.26317394     3.22984552</t>
+  </si>
+  <si>
+    <t>H     -1.34667575     0.70111161     3.79301453</t>
+  </si>
+  <si>
+    <t>H     -2.98298597     1.39877832     3.86302161</t>
+  </si>
+  <si>
+    <t>H     -1.68704581     2.24970245     3.00521684</t>
+  </si>
+  <si>
+    <t>C     -2.47410965     0.52190250     1.95186877</t>
+  </si>
+  <si>
+    <t>C     -3.42526484     1.34253478     1.07711983</t>
+  </si>
+  <si>
+    <t>H     -2.92718148     2.24812031     0.71936828</t>
+  </si>
+  <si>
+    <t>H     -4.31863451     1.63195693     1.64311337</t>
+  </si>
+  <si>
+    <t>H     -3.73858714     0.75919932     0.20467092</t>
+  </si>
+  <si>
+    <t>C     -3.05943775    -0.87791115     2.26390743</t>
+  </si>
+  <si>
+    <t>H     -2.86331248    -1.19869697     3.29105258</t>
+  </si>
+  <si>
+    <t>H     -4.12250233    -0.97087127     2.03927708</t>
+  </si>
+  <si>
+    <t>C     -1.28329158    -1.08560121     0.82115984</t>
+  </si>
+  <si>
+    <t>C      1.21016431     1.49697340    -3.26002312</t>
+  </si>
+  <si>
+    <t>H      1.54995298     2.28606129    -2.58250880</t>
+  </si>
+  <si>
+    <t>H      1.15336537     1.91536844    -4.27181196</t>
+  </si>
+  <si>
+    <t>H      1.94873738     0.68855321    -3.25596428</t>
+  </si>
+  <si>
+    <t>C     -0.15868717     0.97407788    -2.82245493</t>
+  </si>
+  <si>
+    <t>C     -1.19918990     2.09170389    -2.78933525</t>
+  </si>
+  <si>
+    <t>H     -2.16535115     1.70469880    -2.44950438</t>
+  </si>
+  <si>
+    <t>H     -1.32672739     2.52374077    -3.78898144</t>
+  </si>
+  <si>
+    <t>H     -0.88866669     2.89132261    -2.11041117</t>
+  </si>
+  <si>
+    <t>C     -0.62073410    -0.22553127    -3.69286728</t>
+  </si>
+  <si>
+    <t>H     -1.62803531    -0.09883820    -4.09568119</t>
+  </si>
+  <si>
+    <t>H      0.07623479    -0.47006810    -4.49664974</t>
+  </si>
+  <si>
+    <t>C     -0.31605521    -0.92187059    -1.51531768</t>
+  </si>
+  <si>
+    <t>C      3.05547357    -0.26100779     2.68562722</t>
+  </si>
+  <si>
+    <t>H      2.64916396     0.72527021     2.91650844</t>
+  </si>
+  <si>
+    <t>H      4.05868959    -0.34231108     3.12050629</t>
+  </si>
+  <si>
+    <t>H      2.41148067    -1.01415968     3.15232778</t>
+  </si>
+  <si>
+    <t>C      3.11229324    -0.48099050     1.17129743</t>
+  </si>
+  <si>
+    <t>C      4.06564903     0.48891467     0.48440555</t>
+  </si>
+  <si>
+    <t>H      4.04720926     0.34232178    -0.60039061</t>
+  </si>
+  <si>
+    <t>H      5.09108210     0.33785173     0.84106678</t>
+  </si>
+  <si>
+    <t>H      3.78053880     1.52270281     0.69848311</t>
+  </si>
+  <si>
+    <t>C      3.44434547    -1.95491600     0.84415787</t>
+  </si>
+  <si>
+    <t>H      4.05072308    -2.06192541    -0.06049152</t>
+  </si>
+  <si>
+    <t>H      3.90041065    -2.49861336     1.67118311</t>
+  </si>
+  <si>
+    <t>C      1.23979092    -1.54574442     0.36267382</t>
+  </si>
+  <si>
+    <t>C     -0.57066292    -3.42678237    -0.31267205</t>
+  </si>
+  <si>
+    <t>C     -0.95577818    -4.07007694    -1.50128198</t>
+  </si>
+  <si>
+    <t>H     -1.05052364    -3.49036169    -2.41171193</t>
+  </si>
+  <si>
+    <t>C     -1.21893096    -5.44293451    -1.53731608</t>
+  </si>
+  <si>
+    <t>H     -1.51440060    -5.90859747    -2.47367930</t>
+  </si>
+  <si>
+    <t>C     -1.10429907    -6.21393681    -0.38186041</t>
+  </si>
+  <si>
+    <t>H     -1.30835617    -7.28041124    -0.40901798</t>
+  </si>
+  <si>
+    <t>C     -0.72347677    -5.59858751     0.81302297</t>
+  </si>
+  <si>
+    <t>H     -0.62986213    -6.18632221     1.72199738</t>
+  </si>
+  <si>
+    <t>C     -0.46324429    -4.23001337     0.83991110</t>
+  </si>
+  <si>
+    <t>H     -0.16783440    -3.77175784     1.77991343</t>
+  </si>
+  <si>
+    <t>C      0.65611064     2.99469686     0.65296477</t>
+  </si>
+  <si>
+    <t>H     -0.11916482     3.12588000     1.41060233</t>
+  </si>
+  <si>
+    <t>H      1.64294136     2.93427610     1.12128484</t>
+  </si>
+  <si>
+    <t>C      0.61223102     3.95390224    -0.45968652</t>
+  </si>
+  <si>
+    <t>C     -0.59582365     4.55849504    -0.88991356</t>
+  </si>
+  <si>
+    <t>H     -1.49606740     4.40128946    -0.30414554</t>
+  </si>
+  <si>
+    <t>C     -0.63625062     5.39933825    -2.00228190</t>
+  </si>
+  <si>
+    <t>H     -1.57585967     5.86245441    -2.28893042</t>
+  </si>
+  <si>
+    <t>C      0.52234536     5.66260481    -2.73649836</t>
+  </si>
+  <si>
+    <t>H      0.49080080     6.32485580    -3.59509325</t>
+  </si>
+  <si>
+    <t>C      1.72661912     5.06939888    -2.34325695</t>
+  </si>
+  <si>
+    <t>H      2.63771796     5.27491140    -2.89759493</t>
+  </si>
+  <si>
+    <t>C      1.77183688     4.22809744    -1.23414457</t>
+  </si>
+  <si>
+    <t>H      2.72051263     3.79926991    -0.91946429</t>
+  </si>
+  <si>
+    <t>N     -1.25980496     0.17977363     1.13357365</t>
+  </si>
+  <si>
+    <t>N     -0.04330043     0.34763846    -1.46649659</t>
+  </si>
+  <si>
+    <t>N      1.72418582    -0.35984668     0.60717088</t>
+  </si>
+  <si>
+    <t>O     -0.65515423    -1.37742281    -2.76964140</t>
+  </si>
+  <si>
+    <t>O     -2.33022189    -1.79128468     1.36670601</t>
+  </si>
+  <si>
+    <t>O      2.13086033    -2.57103658     0.57150412</t>
+  </si>
+  <si>
+    <t>feopt05</t>
+  </si>
+  <si>
+    <t>631g</t>
+  </si>
+  <si>
+    <t>6311g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -687,6 +988,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -712,10 +1019,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -738,59 +1046,71 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="testtomfe" connectionId="10" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="testtomfe" connectionId="13" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_s30_coords" connectionId="5" xr16:uid="{8018AD0E-E07A-364F-98CA-4224DCC4E142}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_coords" connectionId="7" xr16:uid="{0EACA580-A4B7-AE47-ADBE-D49205E98595}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_coords" connectionId="4" xr16:uid="{0EACA580-A4B7-AE47-ADBE-D49205E98595}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_s30_coords" connectionId="8" xr16:uid="{8018AD0E-E07A-364F-98CA-4224DCC4E142}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf02_631g_coor" connectionId="3" xr16:uid="{3AF8AE73-85C2-C34F-B0D5-46836E36B42A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf02_631g_coor" connectionId="6" xr16:uid="{3AF8AE73-85C2-C34F-B0D5-46836E36B42A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe1-02coor" connectionId="13" xr16:uid="{00000000-0016-0000-0100-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe1-02coor" connectionId="16" xr16:uid="{00000000-0016-0000-0100-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_s35_coords" connectionId="6" xr16:uid="{137057B6-B9E4-3643-9B68-1FB6CFFFCF01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="feopt05_coords" connectionId="5" xr16:uid="{71C92314-5655-4241-92EB-012A9836F714}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fedft05_coords" connectionId="3" xr16:uid="{66F142BC-748E-2644-83A2-108843A27753}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_s35_coords" connectionId="9" xr16:uid="{137057B6-B9E4-3643-9B68-1FB6CFFFCF01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="feopt05_6311g_coords" connectionId="4" xr16:uid="{5AE73355-1452-CD47-9473-BCDFBAC39503}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe_6311+g*" connectionId="11" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe_6311+g*" connectionId="14" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe_631g" connectionId="12" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe_631g" connectionId="15" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf05_1" connectionId="8" xr16:uid="{A3551B01-7EAB-8E41-A26C-C33123B0B459}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf05_1" connectionId="11" xr16:uid="{A3551B01-7EAB-8E41-A26C-C33123B0B459}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf05" connectionId="7" xr16:uid="{93D7A032-4C04-6549-B01E-8621DC3041B5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018_1fe03_coordinates" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="run1_coordinates_end" connectionId="9" xr16:uid="{00000000-0016-0000-0100-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf05" connectionId="10" xr16:uid="{93D7A032-4C04-6549-B01E-8621DC3041B5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018.06.15_coordinates" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="run1_coordinates_end" connectionId="12" xr16:uid="{00000000-0016-0000-0100-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018_1fe03_coordinates" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfebn_start02" connectionId="17" xr16:uid="{00000000-0016-0000-0100-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfebn_start02" connectionId="14" xr16:uid="{00000000-0016-0000-0100-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018.06.15_coordinates" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4583,10 +4903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFFF4CE-8FB2-B449-BB91-9B61B2BB0457}">
-  <dimension ref="A1:CF75"/>
+  <dimension ref="A1:CW75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW29" workbookViewId="0">
-      <selection activeCell="CF66" sqref="CC1:CF72"/>
+    <sheetView topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CN1" sqref="CN1:CW74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4651,9 +4971,16 @@
     <col min="87" max="87" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="106" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -4717,8 +5044,17 @@
       <c r="CF1">
         <v>0.32162125000000003</v>
       </c>
-    </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4776,8 +5112,17 @@
       <c r="CF2">
         <v>-0.22755168000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI2" s="1">
+        <v>43342</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4952,8 +5297,35 @@
       <c r="CF3">
         <v>3.27219908</v>
       </c>
-    </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0.43812604999999999</v>
+      </c>
+      <c r="CK3">
+        <v>1.1576213</v>
+      </c>
+      <c r="CL3">
+        <v>0.33828849</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>5.5543519999999999E-2</v>
+      </c>
+      <c r="CV3">
+        <v>1.23849974</v>
+      </c>
+      <c r="CW3">
+        <v>0.23868544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5128,8 +5500,35 @@
       <c r="CF4">
         <v>3.7826780599999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ4">
+        <v>-0.25905950999999999</v>
+      </c>
+      <c r="CK4">
+        <v>-1.8577055600000001</v>
+      </c>
+      <c r="CL4">
+        <v>-0.18852352</v>
+      </c>
+      <c r="CN4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU4">
+        <v>-0.35965881</v>
+      </c>
+      <c r="CV4">
+        <v>-1.86372889</v>
+      </c>
+      <c r="CW4">
+        <v>-6.7588300000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5304,8 +5703,35 @@
       <c r="CF5">
         <v>3.8873845400000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ5">
+        <v>-2.0980722699999999</v>
+      </c>
+      <c r="CK5">
+        <v>1.26317393</v>
+      </c>
+      <c r="CL5">
+        <v>3.2298454300000001</v>
+      </c>
+      <c r="CN5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU5">
+        <v>-1.8429409299999999</v>
+      </c>
+      <c r="CV5">
+        <v>0.72894298999999996</v>
+      </c>
+      <c r="CW5">
+        <v>3.4682613199999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -5480,8 +5906,35 @@
       <c r="CF6">
         <v>3.1739762699999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ6">
+        <v>-1.3466757899999999</v>
+      </c>
+      <c r="CK6">
+        <v>0.70111161</v>
+      </c>
+      <c r="CL6">
+        <v>3.7930145099999999</v>
+      </c>
+      <c r="CN6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU6">
+        <v>-1.3318777799999999</v>
+      </c>
+      <c r="CV6">
+        <v>-0.19040146999999999</v>
+      </c>
+      <c r="CW6">
+        <v>3.7758671599999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -5656,8 +6109,35 @@
       <c r="CF7">
         <v>1.8966375600000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ7">
+        <v>-2.9829860899999998</v>
+      </c>
+      <c r="CK7">
+        <v>1.3987783499999999</v>
+      </c>
+      <c r="CL7">
+        <v>3.8630215099999998</v>
+      </c>
+      <c r="CN7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU7">
+        <v>-2.58873313</v>
+      </c>
+      <c r="CV7">
+        <v>0.98390407000000002</v>
+      </c>
+      <c r="CW7">
+        <v>4.2303900099999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5832,8 +6312,35 @@
       <c r="CF8">
         <v>1.1525848599999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ8">
+        <v>-1.6870457999999999</v>
+      </c>
+      <c r="CK8">
+        <v>2.24970238</v>
+      </c>
+      <c r="CL8">
+        <v>3.0052167999999999</v>
+      </c>
+      <c r="CN8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU8">
+        <v>-1.1021795299999999</v>
+      </c>
+      <c r="CV8">
+        <v>1.5291486299999999</v>
+      </c>
+      <c r="CW8">
+        <v>3.4161986899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -6008,8 +6515,35 @@
       <c r="CF9">
         <v>1.0183323500000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ9">
+        <v>-2.4741096599999999</v>
+      </c>
+      <c r="CK9">
+        <v>0.52190252000000004</v>
+      </c>
+      <c r="CL9">
+        <v>1.9518687800000001</v>
+      </c>
+      <c r="CN9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU9">
+        <v>-2.5168505799999998</v>
+      </c>
+      <c r="CV9">
+        <v>0.52565675999999995</v>
+      </c>
+      <c r="CW9">
+        <v>2.1071531000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6184,8 +6718,35 @@
       <c r="CF10">
         <v>1.70963252</v>
       </c>
-    </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ10">
+        <v>-3.4252649499999999</v>
+      </c>
+      <c r="CK10">
+        <v>1.3425347999999999</v>
+      </c>
+      <c r="CL10">
+        <v>1.07711979</v>
+      </c>
+      <c r="CN10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU10">
+        <v>-3.3427844699999998</v>
+      </c>
+      <c r="CV10">
+        <v>1.7342114200000001</v>
+      </c>
+      <c r="CW10">
+        <v>1.6861562800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -6360,8 +6921,35 @@
       <c r="CF11">
         <v>0.17578115999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI11" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ11">
+        <v>-2.9271815499999998</v>
+      </c>
+      <c r="CK11">
+        <v>2.2481203199999999</v>
+      </c>
+      <c r="CL11">
+        <v>0.71936827999999997</v>
+      </c>
+      <c r="CN11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU11">
+        <v>-2.7179208099999999</v>
+      </c>
+      <c r="CV11">
+        <v>2.6311078299999999</v>
+      </c>
+      <c r="CW11">
+        <v>1.6428508399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -6536,8 +7124,35 @@
       <c r="CF12">
         <v>1.9786042500000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI12" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ12">
+        <v>-4.3186342900000003</v>
+      </c>
+      <c r="CK12">
+        <v>1.63195694</v>
+      </c>
+      <c r="CL12">
+        <v>1.64311338</v>
+      </c>
+      <c r="CN12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU12">
+        <v>-4.1478396000000002</v>
+      </c>
+      <c r="CV12">
+        <v>1.91743149</v>
+      </c>
+      <c r="CW12">
+        <v>2.4074310699999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6712,8 +7327,35 @@
       <c r="CF13">
         <v>2.9762086499999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI13" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ13">
+        <v>-3.7385871800000001</v>
+      </c>
+      <c r="CK13">
+        <v>0.75919932000000001</v>
+      </c>
+      <c r="CL13">
+        <v>0.20467092000000001</v>
+      </c>
+      <c r="CN13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU13">
+        <v>-3.78773939</v>
+      </c>
+      <c r="CV13">
+        <v>1.5738586699999999</v>
+      </c>
+      <c r="CW13">
+        <v>0.69888035999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -6888,8 +7530,35 @@
       <c r="CF14">
         <v>1.5501910299999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ14">
+        <v>-3.0594376799999998</v>
+      </c>
+      <c r="CK14">
+        <v>-0.87791118000000001</v>
+      </c>
+      <c r="CL14">
+        <v>2.2639073600000001</v>
+      </c>
+      <c r="CN14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU14">
+        <v>-3.3448053899999999</v>
+      </c>
+      <c r="CV14">
+        <v>-0.77900837999999994</v>
+      </c>
+      <c r="CW14">
+        <v>2.0985219499999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -7064,8 +7733,35 @@
       <c r="CF15">
         <v>0.72535985000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ15">
+        <v>-2.86331252</v>
+      </c>
+      <c r="CK15">
+        <v>-1.1986969300000001</v>
+      </c>
+      <c r="CL15">
+        <v>3.2910526299999998</v>
+      </c>
+      <c r="CN15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU15">
+        <v>-3.6184156700000001</v>
+      </c>
+      <c r="CV15">
+        <v>-1.1369853599999999</v>
+      </c>
+      <c r="CW15">
+        <v>3.0912560400000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -7240,8 +7936,35 @@
       <c r="CF16">
         <v>-3.4057305599999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI16" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ16">
+        <v>-4.1225025200000003</v>
+      </c>
+      <c r="CK16">
+        <v>-0.97087124000000002</v>
+      </c>
+      <c r="CL16">
+        <v>2.0392771500000002</v>
+      </c>
+      <c r="CN16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU16">
+        <v>-4.2321718700000002</v>
+      </c>
+      <c r="CV16">
+        <v>-0.71324140999999996</v>
+      </c>
+      <c r="CW16">
+        <v>1.4600682700000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -7416,8 +8139,35 @@
       <c r="CF17">
         <v>-2.7492338099999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ17">
+        <v>-1.28329162</v>
+      </c>
+      <c r="CK17">
+        <v>-1.0856012100000001</v>
+      </c>
+      <c r="CL17">
+        <v>0.82115985999999996</v>
+      </c>
+      <c r="CN17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU17">
+        <v>-1.43523394</v>
+      </c>
+      <c r="CV17">
+        <v>-1.0782461299999999</v>
+      </c>
+      <c r="CW17">
+        <v>0.86574614999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -7592,8 +8342,35 @@
       <c r="CF18">
         <v>-4.4198844099999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ18">
+        <v>1.2101643099999999</v>
+      </c>
+      <c r="CK18">
+        <v>1.4969734400000001</v>
+      </c>
+      <c r="CL18">
+        <v>-3.2600230699999999</v>
+      </c>
+      <c r="CN18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU18">
+        <v>0.88137752000000003</v>
+      </c>
+      <c r="CV18">
+        <v>1.49512402</v>
+      </c>
+      <c r="CW18">
+        <v>-3.2771520700000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -7768,8 +8545,35 @@
       <c r="CF19">
         <v>-3.3566914799999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ19">
+        <v>1.54995302</v>
+      </c>
+      <c r="CK19">
+        <v>2.2860613600000002</v>
+      </c>
+      <c r="CL19">
+        <v>-2.5825089000000001</v>
+      </c>
+      <c r="CN19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU19">
+        <v>1.0100008300000001</v>
+      </c>
+      <c r="CV19">
+        <v>2.3825432800000002</v>
+      </c>
+      <c r="CW19">
+        <v>-2.64974248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -7944,8 +8748,35 @@
       <c r="CF20">
         <v>-2.9912203000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ20">
+        <v>1.1533654099999999</v>
+      </c>
+      <c r="CK20">
+        <v>1.9153684</v>
+      </c>
+      <c r="CL20">
+        <v>-4.2718118799999996</v>
+      </c>
+      <c r="CN20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU20">
+        <v>0.85174344000000002</v>
+      </c>
+      <c r="CV20">
+        <v>1.82074724</v>
+      </c>
+      <c r="CW20">
+        <v>-4.3235995200000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -8120,8 +8951,35 @@
       <c r="CF21">
         <v>-3.0353041699999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI21" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ21">
+        <v>1.9487373699999999</v>
+      </c>
+      <c r="CK21">
+        <v>0.68855323999999996</v>
+      </c>
+      <c r="CL21">
+        <v>-3.2559641699999999</v>
+      </c>
+      <c r="CN21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU21">
+        <v>1.74975799</v>
+      </c>
+      <c r="CV21">
+        <v>0.84261839999999999</v>
+      </c>
+      <c r="CW21">
+        <v>-3.1386124099999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -8296,8 +9154,35 @@
       <c r="CF22">
         <v>-2.7117654600000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ22">
+        <v>-0.15868716999999999</v>
+      </c>
+      <c r="CK22">
+        <v>0.97407787000000001</v>
+      </c>
+      <c r="CL22">
+        <v>-2.8224548600000001</v>
+      </c>
+      <c r="CN22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU22">
+        <v>-0.40449513999999998</v>
+      </c>
+      <c r="CV22">
+        <v>0.75396976999999998</v>
+      </c>
+      <c r="CW22">
+        <v>-2.9146821200000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -8472,8 +9357,35 @@
       <c r="CF23">
         <v>-4.04445268</v>
       </c>
-    </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ23">
+        <v>-1.19918985</v>
+      </c>
+      <c r="CK23">
+        <v>2.0917037999999999</v>
+      </c>
+      <c r="CL23">
+        <v>-2.78933527</v>
+      </c>
+      <c r="CN23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU23">
+        <v>-1.63259493</v>
+      </c>
+      <c r="CV23">
+        <v>1.6512096300000001</v>
+      </c>
+      <c r="CW23">
+        <v>-3.0690193200000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -8648,8 +9560,35 @@
       <c r="CF24">
         <v>-2.3919865599999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI24" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ24">
+        <v>-2.1653511000000001</v>
+      </c>
+      <c r="CK24">
+        <v>1.7046988300000001</v>
+      </c>
+      <c r="CL24">
+        <v>-2.4495043600000002</v>
+      </c>
+      <c r="CN24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU24">
+        <v>-2.5411043100000001</v>
+      </c>
+      <c r="CV24">
+        <v>1.1107555899999999</v>
+      </c>
+      <c r="CW24">
+        <v>-2.7838419399999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -8824,8 +9763,35 @@
       <c r="CF25">
         <v>-3.8213715000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI25" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ25">
+        <v>-1.32672743</v>
+      </c>
+      <c r="CK25">
+        <v>2.5237407799999998</v>
+      </c>
+      <c r="CL25">
+        <v>-3.7889813499999998</v>
+      </c>
+      <c r="CN25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT25" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU25">
+        <v>-1.7329131200000001</v>
+      </c>
+      <c r="CV25">
+        <v>1.98126577</v>
+      </c>
+      <c r="CW25">
+        <v>-4.10956995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -9000,8 +9966,35 @@
       <c r="CF26">
         <v>-4.28699618</v>
       </c>
-    </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ26">
+        <v>-0.88866666999999999</v>
+      </c>
+      <c r="CK26">
+        <v>2.89132261</v>
+      </c>
+      <c r="CL26">
+        <v>-2.1104112399999999</v>
+      </c>
+      <c r="CN26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CT26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU26">
+        <v>-1.5380724800000001</v>
+      </c>
+      <c r="CV26">
+        <v>2.53807764</v>
+      </c>
+      <c r="CW26">
+        <v>-2.43645113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -9176,8 +10169,35 @@
       <c r="CF27">
         <v>-4.5533849699999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ27">
+        <v>-0.62073409000000002</v>
+      </c>
+      <c r="CK27">
+        <v>-0.22553127000000001</v>
+      </c>
+      <c r="CL27">
+        <v>-3.6928672699999998</v>
+      </c>
+      <c r="CN27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="CT27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU27">
+        <v>-0.56015915000000005</v>
+      </c>
+      <c r="CV27">
+        <v>-0.56583181999999999</v>
+      </c>
+      <c r="CW27">
+        <v>-3.7170675700000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -9352,8 +10372,35 @@
       <c r="CF28">
         <v>-1.6015669800000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI28" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ28">
+        <v>-1.62803532</v>
+      </c>
+      <c r="CK28">
+        <v>-9.8838200000000001E-2</v>
+      </c>
+      <c r="CL28">
+        <v>-4.09568127</v>
+      </c>
+      <c r="CN28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU28">
+        <v>-1.48981337</v>
+      </c>
+      <c r="CV28">
+        <v>-0.61582974999999995</v>
+      </c>
+      <c r="CW28">
+        <v>-4.2871895799999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -9528,8 +10575,35 @@
       <c r="CF29">
         <v>2.7492067100000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI29" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ29">
+        <v>7.6234789999999997E-2</v>
+      </c>
+      <c r="CK29">
+        <v>-0.47006808999999999</v>
+      </c>
+      <c r="CL29">
+        <v>-4.4966498399999999</v>
+      </c>
+      <c r="CN29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT29" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU29">
+        <v>0.29089368999999998</v>
+      </c>
+      <c r="CV29">
+        <v>-0.77411856999999995</v>
+      </c>
+      <c r="CW29">
+        <v>-4.3690248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -9704,8 +10778,35 @@
       <c r="CF30">
         <v>2.6785526800000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI30" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ30">
+        <v>-0.31605522000000003</v>
+      </c>
+      <c r="CK30">
+        <v>-0.92187056000000001</v>
+      </c>
+      <c r="CL30">
+        <v>-1.51531762</v>
+      </c>
+      <c r="CN30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CT30" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU30">
+        <v>-0.44387521000000002</v>
+      </c>
+      <c r="CV30">
+        <v>-1.0401882099999999</v>
+      </c>
+      <c r="CW30">
+        <v>-1.46346526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -9880,8 +10981,35 @@
       <c r="CF31">
         <v>3.20364775</v>
       </c>
-    </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI31" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ31">
+        <v>3.0554735700000002</v>
+      </c>
+      <c r="CK31">
+        <v>-0.26100780000000001</v>
+      </c>
+      <c r="CL31">
+        <v>2.6856273100000001</v>
+      </c>
+      <c r="CN31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CT31" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU31">
+        <v>2.9416760900000001</v>
+      </c>
+      <c r="CV31">
+        <v>0.26032815999999998</v>
+      </c>
+      <c r="CW31">
+        <v>2.62842142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -10056,8 +11184,35 @@
       <c r="CF32">
         <v>3.3993320800000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI32" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ32">
+        <v>2.6491640599999999</v>
+      </c>
+      <c r="CK32">
+        <v>0.72527019000000004</v>
+      </c>
+      <c r="CL32">
+        <v>2.9165085500000001</v>
+      </c>
+      <c r="CN32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU32">
+        <v>2.5862681300000001</v>
+      </c>
+      <c r="CV32">
+        <v>1.29136815</v>
+      </c>
+      <c r="CW32">
+        <v>2.6840192799999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -10232,8 +11387,35 @@
       <c r="CF33">
         <v>1.36543057</v>
       </c>
-    </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI33" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ33">
+        <v>4.0586895600000004</v>
+      </c>
+      <c r="CK33">
+        <v>-0.34231108999999998</v>
+      </c>
+      <c r="CL33">
+        <v>3.1205063800000001</v>
+      </c>
+      <c r="CN33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU33">
+        <v>3.9522927600000002</v>
+      </c>
+      <c r="CV33">
+        <v>0.21532354000000001</v>
+      </c>
+      <c r="CW33">
+        <v>3.05133711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -10408,8 +11590,35 @@
       <c r="CF34">
         <v>0.41800264999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI34" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ34">
+        <v>2.4114807300000001</v>
+      </c>
+      <c r="CK34">
+        <v>-1.01415966</v>
+      </c>
+      <c r="CL34">
+        <v>3.1523276999999998</v>
+      </c>
+      <c r="CN34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU34">
+        <v>2.2794906099999999</v>
+      </c>
+      <c r="CV34">
+        <v>-0.36242565999999998</v>
+      </c>
+      <c r="CW34">
+        <v>3.2390816600000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -10584,8 +11793,35 @@
       <c r="CF35">
         <v>-0.56017746000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI35" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ35">
+        <v>3.1122933499999998</v>
+      </c>
+      <c r="CK35">
+        <v>-0.48099048999999999</v>
+      </c>
+      <c r="CL35">
+        <v>1.1712974</v>
+      </c>
+      <c r="CN35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="CT35" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU35">
+        <v>2.9519480499999999</v>
+      </c>
+      <c r="CV35">
+        <v>-0.22972429999999999</v>
+      </c>
+      <c r="CW35">
+        <v>1.17959072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -10760,8 +11996,35 @@
       <c r="CF36">
         <v>0.80648361000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI36" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ36">
+        <v>4.06564909</v>
+      </c>
+      <c r="CK36">
+        <v>0.48891466</v>
+      </c>
+      <c r="CL36">
+        <v>0.48440555000000002</v>
+      </c>
+      <c r="CN36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="CT36" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU36">
+        <v>3.8807773299999999</v>
+      </c>
+      <c r="CV36">
+        <v>0.60872289999999996</v>
+      </c>
+      <c r="CW36">
+        <v>0.30946952999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -10936,8 +12199,35 @@
       <c r="CF37">
         <v>0.30469774999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI37" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ37">
+        <v>4.0472094700000003</v>
+      </c>
+      <c r="CK37">
+        <v>0.34232177000000003</v>
+      </c>
+      <c r="CL37">
+        <v>-0.60039061999999999</v>
+      </c>
+      <c r="CN37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="CT37" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU37">
+        <v>3.8533561500000002</v>
+      </c>
+      <c r="CV37">
+        <v>0.26265417000000002</v>
+      </c>
+      <c r="CW37">
+        <v>-0.72881624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -11112,8 +12402,35 @@
       <c r="CF38">
         <v>1.43680034</v>
       </c>
-    </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI38" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ38">
+        <v>5.09108216</v>
+      </c>
+      <c r="CK38">
+        <v>0.33785172000000002</v>
+      </c>
+      <c r="CL38">
+        <v>0.84106676000000002</v>
+      </c>
+      <c r="CN38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CT38" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU38">
+        <v>4.9120264100000002</v>
+      </c>
+      <c r="CV38">
+        <v>0.54020431000000002</v>
+      </c>
+      <c r="CW38">
+        <v>0.67546764999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -11288,8 +12605,35 @@
       <c r="CF39">
         <v>0.89097380999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI39" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ39">
+        <v>3.7805388299999998</v>
+      </c>
+      <c r="CK39">
+        <v>1.5227027900000001</v>
+      </c>
+      <c r="CL39">
+        <v>0.69848312000000001</v>
+      </c>
+      <c r="CN39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="CT39" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU39">
+        <v>3.5777817199999999</v>
+      </c>
+      <c r="CV39">
+        <v>1.6580146499999999</v>
+      </c>
+      <c r="CW39">
+        <v>0.32640697000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -11464,8 +12808,35 @@
       <c r="CF40">
         <v>2.4452770099999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI40" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ40">
+        <v>3.4443453800000001</v>
+      </c>
+      <c r="CK40">
+        <v>-1.95491601</v>
+      </c>
+      <c r="CL40">
+        <v>0.84415790000000002</v>
+      </c>
+      <c r="CN40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CT40" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU40">
+        <v>3.30597232</v>
+      </c>
+      <c r="CV40">
+        <v>-1.73622856</v>
+      </c>
+      <c r="CW40">
+        <v>1.1009647300000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -11640,8 +13011,35 @@
       <c r="CF41">
         <v>0.48337390000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI41" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ41">
+        <v>4.0507232899999996</v>
+      </c>
+      <c r="CK41">
+        <v>-2.0619254499999999</v>
+      </c>
+      <c r="CL41">
+        <v>-6.049152E-2</v>
+      </c>
+      <c r="CN41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CT41" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU41">
+        <v>3.9974046799999998</v>
+      </c>
+      <c r="CV41">
+        <v>-1.96808388</v>
+      </c>
+      <c r="CW41">
+        <v>0.28604439999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -11816,8 +13214,35 @@
       <c r="CF42">
         <v>-0.36560446000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI42" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ42">
+        <v>3.9004106200000002</v>
+      </c>
+      <c r="CK42">
+        <v>-2.4986134600000001</v>
+      </c>
+      <c r="CL42">
+        <v>1.6711831500000001</v>
+      </c>
+      <c r="CN42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="CT42" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU42">
+        <v>3.6816092999999999</v>
+      </c>
+      <c r="CV42">
+        <v>-2.14876669</v>
+      </c>
+      <c r="CW42">
+        <v>2.0383962000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -11992,8 +13417,35 @@
       <c r="CF43">
         <v>-1.5763826999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI43" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ43">
+        <v>1.23979087</v>
+      </c>
+      <c r="CK43">
+        <v>-1.5457444499999999</v>
+      </c>
+      <c r="CL43">
+        <v>0.36267380999999999</v>
+      </c>
+      <c r="CN43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="CT43" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU43">
+        <v>1.1129869999999999</v>
+      </c>
+      <c r="CV43">
+        <v>-1.42366492</v>
+      </c>
+      <c r="CW43">
+        <v>0.48566820999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -12168,8 +13620,35 @@
       <c r="CF44">
         <v>-2.4972479299999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI44" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ44">
+        <v>-0.57066291999999996</v>
+      </c>
+      <c r="CK44">
+        <v>-3.4267823100000001</v>
+      </c>
+      <c r="CL44">
+        <v>-0.31267205999999997</v>
+      </c>
+      <c r="CN44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="CT44" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU44">
+        <v>-0.59396093000000005</v>
+      </c>
+      <c r="CV44">
+        <v>-3.4506557299999998</v>
+      </c>
+      <c r="CW44">
+        <v>-7.4858789999999995E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -12344,8 +13823,35 @@
       <c r="CF45">
         <v>-1.6189559600000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI45" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ45">
+        <v>-0.95577820999999996</v>
+      </c>
+      <c r="CK45">
+        <v>-4.0700767999999998</v>
+      </c>
+      <c r="CL45">
+        <v>-1.50128203</v>
+      </c>
+      <c r="CN45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CT45" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU45">
+        <v>-1.02693513</v>
+      </c>
+      <c r="CV45">
+        <v>-4.1812577099999997</v>
+      </c>
+      <c r="CW45">
+        <v>-1.1946870999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -12520,8 +14026,35 @@
       <c r="CF46">
         <v>-2.56907548</v>
       </c>
-    </row>
-    <row r="47" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI46" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ46">
+        <v>-1.0505236099999999</v>
+      </c>
+      <c r="CK46">
+        <v>-3.4903617100000002</v>
+      </c>
+      <c r="CL46">
+        <v>-2.4117120399999998</v>
+      </c>
+      <c r="CN46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="CT46" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU46">
+        <v>-1.1929817300000001</v>
+      </c>
+      <c r="CV46">
+        <v>-3.6655375299999999</v>
+      </c>
+      <c r="CW46">
+        <v>-2.13304793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -12696,8 +14229,35 @@
       <c r="CF47">
         <v>-0.44958437000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI47" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ47">
+        <v>-1.21893096</v>
+      </c>
+      <c r="CK47">
+        <v>-5.4429347000000003</v>
+      </c>
+      <c r="CL47">
+        <v>-1.5373160699999999</v>
+      </c>
+      <c r="CN47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="CT47" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU47">
+        <v>-1.23721908</v>
+      </c>
+      <c r="CV47">
+        <v>-5.5620245199999996</v>
+      </c>
+      <c r="CW47">
+        <v>-1.13097516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -12872,8 +14432,35 @@
       <c r="CF48">
         <v>-0.48206138999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI48" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ48">
+        <v>-1.5144005899999999</v>
+      </c>
+      <c r="CK48">
+        <v>-5.9085975499999996</v>
+      </c>
+      <c r="CL48">
+        <v>-2.47367933</v>
+      </c>
+      <c r="CN48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT48" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU48">
+        <v>-1.5701826999999999</v>
+      </c>
+      <c r="CV48">
+        <v>-6.0958476199999998</v>
+      </c>
+      <c r="CW48">
+        <v>-2.01700225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -13048,8 +14635,35 @@
       <c r="CF49">
         <v>0.76876838000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI49" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ49">
+        <v>-1.1042990399999999</v>
+      </c>
+      <c r="CK49">
+        <v>-6.2139366599999999</v>
+      </c>
+      <c r="CL49">
+        <v>-0.38186039999999999</v>
+      </c>
+      <c r="CN49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT49" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU49">
+        <v>-1.0214559000000001</v>
+      </c>
+      <c r="CV49">
+        <v>-6.2537110299999998</v>
+      </c>
+      <c r="CW49">
+        <v>5.9740189999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -13224,8 +14838,35 @@
       <c r="CF50">
         <v>1.6858914300000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI50" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ50">
+        <v>-1.30835613</v>
+      </c>
+      <c r="CK50">
+        <v>-7.2804110900000003</v>
+      </c>
+      <c r="CL50">
+        <v>-0.40901799</v>
+      </c>
+      <c r="CN50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT50" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU50">
+        <v>-1.1779410800000001</v>
+      </c>
+      <c r="CV50">
+        <v>-7.3273616099999996</v>
+      </c>
+      <c r="CW50">
+        <v>0.10931055000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -13400,8 +15041,35 @@
       <c r="CF51">
         <v>0.80271910999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI51" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ51">
+        <v>-0.72347678000000004</v>
+      </c>
+      <c r="CK51">
+        <v>-5.5985874600000001</v>
+      </c>
+      <c r="CL51">
+        <v>0.81302297000000001</v>
+      </c>
+      <c r="CN51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT51" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU51">
+        <v>-0.59814177999999996</v>
+      </c>
+      <c r="CV51">
+        <v>-5.5501552600000004</v>
+      </c>
+      <c r="CW51">
+        <v>1.1896530999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -13576,8 +15244,35 @@
       <c r="CF52">
         <v>1.75884369</v>
       </c>
-    </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI52" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ52">
+        <v>-0.62986211999999997</v>
+      </c>
+      <c r="CK52">
+        <v>-6.1863221499999996</v>
+      </c>
+      <c r="CL52">
+        <v>1.72199736</v>
+      </c>
+      <c r="CN52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CT52" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU52">
+        <v>-0.42940496</v>
+      </c>
+      <c r="CV52">
+        <v>-6.0750450699999998</v>
+      </c>
+      <c r="CW52">
+        <v>2.1257667800000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -13752,8 +15447,35 @@
       <c r="CF53">
         <v>0.95860232999999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI53" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ53">
+        <v>-0.4632443</v>
+      </c>
+      <c r="CK53">
+        <v>-4.2300135599999997</v>
+      </c>
+      <c r="CL53">
+        <v>0.83991108000000003</v>
+      </c>
+      <c r="CN53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CT53" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU53">
+        <v>-0.39151086000000002</v>
+      </c>
+      <c r="CV53">
+        <v>-4.1740168999999998</v>
+      </c>
+      <c r="CW53">
+        <v>1.11715242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -13928,8 +15650,35 @@
       <c r="CF54">
         <v>2.0485609999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI54" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ54">
+        <v>-0.16783439999999999</v>
+      </c>
+      <c r="CK54">
+        <v>-3.7717578600000001</v>
+      </c>
+      <c r="CL54">
+        <v>1.7799134599999999</v>
+      </c>
+      <c r="CN54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CT54" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU54">
+        <v>-5.6696339999999998E-2</v>
+      </c>
+      <c r="CV54">
+        <v>-3.6477968600000001</v>
+      </c>
+      <c r="CW54">
+        <v>2.0065751999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -14104,8 +15853,35 @@
       <c r="CF55">
         <v>0.61527604999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI55" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ55">
+        <v>1.0518168999999999</v>
+      </c>
+      <c r="CK55">
+        <v>2.5222416000000001</v>
+      </c>
+      <c r="CL55">
+        <v>1.68130877</v>
+      </c>
+      <c r="CN55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CT55" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU55">
+        <v>0.32060970999999999</v>
+      </c>
+      <c r="CV55">
+        <v>2.8017789199999998</v>
+      </c>
+      <c r="CW55">
+        <v>1.4826725599999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -14280,8 +16056,35 @@
       <c r="CF56">
         <v>0.45639737000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI56" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ56">
+        <v>0.50395816999999998</v>
+      </c>
+      <c r="CK56">
+        <v>2.51550407</v>
+      </c>
+      <c r="CL56">
+        <v>2.62581022</v>
+      </c>
+      <c r="CN56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CT56" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU56">
+        <v>-0.59760769999999996</v>
+      </c>
+      <c r="CV56">
+        <v>3.0736337599999999</v>
+      </c>
+      <c r="CW56">
+        <v>2.0123050199999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -14456,8 +16259,35 @@
       <c r="CF57">
         <v>1.17389761</v>
       </c>
-    </row>
-    <row r="58" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI57" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ57">
+        <v>2.1303253500000001</v>
+      </c>
+      <c r="CK57">
+        <v>2.5067085800000002</v>
+      </c>
+      <c r="CL57">
+        <v>1.8640286800000001</v>
+      </c>
+      <c r="CN57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT57" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU57">
+        <v>1.15163152</v>
+      </c>
+      <c r="CV57">
+        <v>2.7308044699999998</v>
+      </c>
+      <c r="CW57">
+        <v>2.1886260599999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -14632,8 +16462,35 @@
       <c r="CF58">
         <v>2.1332538799999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI58" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ58">
+        <v>0.65058114</v>
+      </c>
+      <c r="CK58">
+        <v>3.5707264200000002</v>
+      </c>
+      <c r="CL58">
+        <v>0.73278100000000002</v>
+      </c>
+      <c r="CN58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CT58" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU58">
+        <v>0.58913459000000001</v>
+      </c>
+      <c r="CV58">
+        <v>3.6717963400000002</v>
+      </c>
+      <c r="CW58">
+        <v>0.32522066999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -14808,8 +16665,35 @@
       <c r="CF59">
         <v>0.68832747000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI59" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ59">
+        <v>-0.66311529999999996</v>
+      </c>
+      <c r="CK59">
+        <v>4.1031539500000003</v>
+      </c>
+      <c r="CL59">
+        <v>0.70505392</v>
+      </c>
+      <c r="CN59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CT59" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU59">
+        <v>-0.47415599000000003</v>
+      </c>
+      <c r="CV59">
+        <v>4.2001955200000003</v>
+      </c>
+      <c r="CW59">
+        <v>-0.45335934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -14984,8 +16868,35 @@
       <c r="CF60">
         <v>1.27071139</v>
       </c>
-    </row>
-    <row r="61" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI60" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ60">
+        <v>-1.3600858</v>
+      </c>
+      <c r="CK60">
+        <v>3.8149194099999999</v>
+      </c>
+      <c r="CL60">
+        <v>1.4857147799999999</v>
+      </c>
+      <c r="CN60" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CT60" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU60">
+        <v>-1.4963815199999999</v>
+      </c>
+      <c r="CV60">
+        <v>4.04704307</v>
+      </c>
+      <c r="CW60">
+        <v>-0.11368386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -15160,8 +17071,35 @@
       <c r="CF61">
         <v>-0.53350185000000006</v>
       </c>
-    </row>
-    <row r="62" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI61" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ61">
+        <v>-1.0537925800000001</v>
+      </c>
+      <c r="CK61">
+        <v>5.0345043199999999</v>
+      </c>
+      <c r="CL61">
+        <v>-0.25723654000000001</v>
+      </c>
+      <c r="CN61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="CT61" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU61">
+        <v>-0.23248692000000001</v>
+      </c>
+      <c r="CV61">
+        <v>4.9501436999999999</v>
+      </c>
+      <c r="CW61">
+        <v>-1.60401087</v>
+      </c>
+    </row>
+    <row r="62" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -15336,8 +17274,35 @@
       <c r="CF62">
         <v>-0.90739557000000004</v>
       </c>
-    </row>
-    <row r="63" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI62" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ62">
+        <v>-2.06216271</v>
+      </c>
+      <c r="CK62">
+        <v>5.43721225</v>
+      </c>
+      <c r="CL62">
+        <v>-0.23361211000000001</v>
+      </c>
+      <c r="CN62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CT62" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU62">
+        <v>-1.0690757799999999</v>
+      </c>
+      <c r="CV62">
+        <v>5.3573485099999996</v>
+      </c>
+      <c r="CW62">
+        <v>-2.1644862300000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -15512,8 +17477,35 @@
       <c r="CF63">
         <v>-1.2554077299999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI63" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ63">
+        <v>-0.15517734999999999</v>
+      </c>
+      <c r="CK63">
+        <v>5.4641404500000004</v>
+      </c>
+      <c r="CL63">
+        <v>-1.2363607299999999</v>
+      </c>
+      <c r="CN63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="CT63" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU63">
+        <v>1.0758163999999999</v>
+      </c>
+      <c r="CV63">
+        <v>5.19176897</v>
+      </c>
+      <c r="CW63">
+        <v>-2.0315821199999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -15688,8 +17680,35 @@
       <c r="CF64">
         <v>-2.1956123500000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI64" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ64">
+        <v>-0.45786408000000001</v>
+      </c>
+      <c r="CK64">
+        <v>6.1961150700000003</v>
+      </c>
+      <c r="CL64">
+        <v>-1.97755646</v>
+      </c>
+      <c r="CN64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="CT64" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU64">
+        <v>1.2644306300000001</v>
+      </c>
+      <c r="CV64">
+        <v>5.7783074699999997</v>
+      </c>
+      <c r="CW64">
+        <v>-2.92432151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -15864,8 +17883,35 @@
       <c r="CF65">
         <v>-0.76985207</v>
       </c>
-    </row>
-    <row r="66" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI65" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ65">
+        <v>1.1441931400000001</v>
+      </c>
+      <c r="CK65">
+        <v>4.9460261299999999</v>
+      </c>
+      <c r="CL65">
+        <v>-1.2418140099999999</v>
+      </c>
+      <c r="CN65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="CT65" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU65">
+        <v>2.14115426</v>
+      </c>
+      <c r="CV65">
+        <v>4.6801835599999997</v>
+      </c>
+      <c r="CW65">
+        <v>-1.28496923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -16040,8 +18086,35 @@
       <c r="CF66">
         <v>-1.33597755</v>
       </c>
-    </row>
-    <row r="67" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI66" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ66">
+        <v>1.8571622999999999</v>
+      </c>
+      <c r="CK66">
+        <v>5.28029277</v>
+      </c>
+      <c r="CL66">
+        <v>-1.9898543099999999</v>
+      </c>
+      <c r="CN66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CT66" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU66">
+        <v>3.1635382299999999</v>
+      </c>
+      <c r="CV66">
+        <v>4.8742148099999998</v>
+      </c>
+      <c r="CW66">
+        <v>-1.5965828500000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -16216,8 +18289,35 @@
       <c r="CF67">
         <v>1.0892703800000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI67" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ67">
+        <v>1.53862275</v>
+      </c>
+      <c r="CK67">
+        <v>4.0149278800000001</v>
+      </c>
+      <c r="CL67">
+        <v>-0.28394058999999999</v>
+      </c>
+      <c r="CN67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT67" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU67">
+        <v>1.9037784600000001</v>
+      </c>
+      <c r="CV67">
+        <v>3.9355609199999999</v>
+      </c>
+      <c r="CW67">
+        <v>-0.13177368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -16392,8 +18492,35 @@
       <c r="CF68">
         <v>-1.61514582</v>
       </c>
-    </row>
-    <row r="69" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI68" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ68">
+        <v>2.5611942399999998</v>
+      </c>
+      <c r="CK68">
+        <v>3.6445118299999999</v>
+      </c>
+      <c r="CL68">
+        <v>-0.27928723</v>
+      </c>
+      <c r="CN68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="CT68" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU68">
+        <v>2.74031541</v>
+      </c>
+      <c r="CV68">
+        <v>3.5857549</v>
+      </c>
+      <c r="CW68">
+        <v>0.46540229999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -16568,8 +18695,35 @@
       <c r="CF69">
         <v>0.78363631</v>
       </c>
-    </row>
-    <row r="70" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI69" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ69">
+        <v>-1.2598049099999999</v>
+      </c>
+      <c r="CK69">
+        <v>0.17977362999999999</v>
+      </c>
+      <c r="CL69">
+        <v>1.13357365</v>
+      </c>
+      <c r="CN69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CT69" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU69">
+        <v>-1.45548444</v>
+      </c>
+      <c r="CV69">
+        <v>0.20632391</v>
+      </c>
+      <c r="CW69">
+        <v>1.09019774</v>
+      </c>
+    </row>
+    <row r="70" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -16744,8 +18898,35 @@
       <c r="CF70">
         <v>-2.8325195399999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI70" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ70">
+        <v>-4.3300430000000001E-2</v>
+      </c>
+      <c r="CK70">
+        <v>0.34763846999999998</v>
+      </c>
+      <c r="CL70">
+        <v>-1.4664965299999999</v>
+      </c>
+      <c r="CN70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT70" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU70">
+        <v>-0.31877828000000002</v>
+      </c>
+      <c r="CV70">
+        <v>0.25262423000000001</v>
+      </c>
+      <c r="CW70">
+        <v>-1.50427636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -16920,8 +19101,35 @@
       <c r="CF71">
         <v>1.16834382</v>
       </c>
-    </row>
-    <row r="72" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI71" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ71">
+        <v>1.72418582</v>
+      </c>
+      <c r="CK71">
+        <v>-0.35984667999999997</v>
+      </c>
+      <c r="CL71">
+        <v>0.60717085999999998</v>
+      </c>
+      <c r="CN71" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CT71" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU71">
+        <v>1.5506989200000001</v>
+      </c>
+      <c r="CV71">
+        <v>-0.20393810000000001</v>
+      </c>
+      <c r="CW71">
+        <v>0.63270897000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -17096,8 +19304,35 @@
       <c r="CF72">
         <v>0.78951782999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI72" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ72">
+        <v>-0.65515422999999995</v>
+      </c>
+      <c r="CK72">
+        <v>-1.37742276</v>
+      </c>
+      <c r="CL72">
+        <v>-2.7696414300000001</v>
+      </c>
+      <c r="CN72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT72" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU72">
+        <v>-0.60718262000000001</v>
+      </c>
+      <c r="CV72">
+        <v>-1.63089723</v>
+      </c>
+      <c r="CW72">
+        <v>-2.6960983299999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -17263,8 +19498,35 @@
       <c r="BX73">
         <v>1.17352272</v>
       </c>
-    </row>
-    <row r="74" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI73" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ73">
+        <v>-2.3302218300000002</v>
+      </c>
+      <c r="CK73">
+        <v>-1.7912846499999999</v>
+      </c>
+      <c r="CL73">
+        <v>1.3667060099999999</v>
+      </c>
+      <c r="CN73" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="CT73" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU73">
+        <v>-2.4377866400000001</v>
+      </c>
+      <c r="CV73">
+        <v>-1.7755952500000001</v>
+      </c>
+      <c r="CW73">
+        <v>1.4955537999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -17427,12 +19689,42 @@
       <c r="BX74">
         <v>0.79143887000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CI74" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ74">
+        <v>2.1308604</v>
+      </c>
+      <c r="CK74">
+        <v>-2.57103663</v>
+      </c>
+      <c r="CL74">
+        <v>0.57150409000000002</v>
+      </c>
+      <c r="CN74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="CT74" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU74">
+        <v>2.0269438000000002</v>
+      </c>
+      <c r="CV74">
+        <v>-2.4020953500000002</v>
+      </c>
+      <c r="CW74">
+        <v>0.79782797999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>12</v>
       </c>
       <c r="AM75" t="s">
+        <v>12</v>
+      </c>
+      <c r="CS75" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17444,10 +19736,2156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BB2B4B-904D-EA4B-B0ED-571736EDF1C2}">
+  <dimension ref="F1:U74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F50" workbookViewId="0">
+      <selection activeCell="U74" sqref="R3:U74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" customWidth="1"/>
+    <col min="22" max="22" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>5.5543519999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.23849974</v>
+      </c>
+      <c r="O3">
+        <v>0.23868544</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>5.706783E-2</v>
+      </c>
+      <c r="T3">
+        <v>1.22020285</v>
+      </c>
+      <c r="U3">
+        <v>0.33111718000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>-0.35965881</v>
+      </c>
+      <c r="N4">
+        <v>-1.86372889</v>
+      </c>
+      <c r="O4">
+        <v>-6.7588300000000004E-2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>-0.30991740000000001</v>
+      </c>
+      <c r="T4">
+        <v>-1.87258495</v>
+      </c>
+      <c r="U4">
+        <v>-9.7872399999999991E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>-1.8429409299999999</v>
+      </c>
+      <c r="N5">
+        <v>0.72894298999999996</v>
+      </c>
+      <c r="O5">
+        <v>3.4682613199999999</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>-2.01608375</v>
+      </c>
+      <c r="T5">
+        <v>0.70985869000000001</v>
+      </c>
+      <c r="U5">
+        <v>3.4642392200000001</v>
+      </c>
+    </row>
+    <row r="6" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>-1.3318777799999999</v>
+      </c>
+      <c r="N6">
+        <v>-0.19040146999999999</v>
+      </c>
+      <c r="O6">
+        <v>3.7758671599999998</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>-1.4967485199999999</v>
+      </c>
+      <c r="T6">
+        <v>-0.18823939000000001</v>
+      </c>
+      <c r="U6">
+        <v>3.8046582899999999</v>
+      </c>
+    </row>
+    <row r="7" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>-2.58873313</v>
+      </c>
+      <c r="N7">
+        <v>0.98390407000000002</v>
+      </c>
+      <c r="O7">
+        <v>4.2303900099999998</v>
+      </c>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>-2.8173474600000001</v>
+      </c>
+      <c r="T7">
+        <v>0.93665116999999998</v>
+      </c>
+      <c r="U7">
+        <v>4.1727717599999998</v>
+      </c>
+    </row>
+    <row r="8" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>-1.1021795299999999</v>
+      </c>
+      <c r="N8">
+        <v>1.5291486299999999</v>
+      </c>
+      <c r="O8">
+        <v>3.4161986899999999</v>
+      </c>
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>-1.30484814</v>
+      </c>
+      <c r="T8">
+        <v>1.5330134500000001</v>
+      </c>
+      <c r="U8">
+        <v>3.4612863599999999</v>
+      </c>
+    </row>
+    <row r="9" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>-2.5168505799999998</v>
+      </c>
+      <c r="N9">
+        <v>0.52565675999999995</v>
+      </c>
+      <c r="O9">
+        <v>2.1071531000000001</v>
+      </c>
+      <c r="R9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>-2.5917042600000002</v>
+      </c>
+      <c r="T9">
+        <v>0.48657038000000002</v>
+      </c>
+      <c r="U9">
+        <v>2.0651367999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>-3.3427844699999998</v>
+      </c>
+      <c r="N10">
+        <v>1.7342114200000001</v>
+      </c>
+      <c r="O10">
+        <v>1.6861562800000001</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>-3.3994906199999999</v>
+      </c>
+      <c r="T10">
+        <v>1.6795165700000001</v>
+      </c>
+      <c r="U10">
+        <v>1.5760252100000001</v>
+      </c>
+    </row>
+    <row r="11" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>-2.7179208099999999</v>
+      </c>
+      <c r="N11">
+        <v>2.6311078299999999</v>
+      </c>
+      <c r="O11">
+        <v>1.6428508399999999</v>
+      </c>
+      <c r="R11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>-2.7959824700000002</v>
+      </c>
+      <c r="T11">
+        <v>2.5870702900000002</v>
+      </c>
+      <c r="U11">
+        <v>1.59802413</v>
+      </c>
+    </row>
+    <row r="12" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>-4.1478396000000002</v>
+      </c>
+      <c r="N12">
+        <v>1.91743149</v>
+      </c>
+      <c r="O12">
+        <v>2.4074310699999999</v>
+      </c>
+      <c r="R12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>-4.2737666000000001</v>
+      </c>
+      <c r="T12">
+        <v>1.8370037400000001</v>
+      </c>
+      <c r="U12">
+        <v>2.2128485800000002</v>
+      </c>
+    </row>
+    <row r="13" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>-3.78773939</v>
+      </c>
+      <c r="N13">
+        <v>1.5738586699999999</v>
+      </c>
+      <c r="O13">
+        <v>0.69888035999999998</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>-3.7400519600000002</v>
+      </c>
+      <c r="T13">
+        <v>1.5151865600000001</v>
+      </c>
+      <c r="U13">
+        <v>0.55226189000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>-3.3448053899999999</v>
+      </c>
+      <c r="N14">
+        <v>-0.77900837999999994</v>
+      </c>
+      <c r="O14">
+        <v>2.0985219499999999</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>-3.39991982</v>
+      </c>
+      <c r="T14">
+        <v>-0.82585001000000002</v>
+      </c>
+      <c r="U14">
+        <v>2.0111413599999999</v>
+      </c>
+    </row>
+    <row r="15" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>-3.6184156700000001</v>
+      </c>
+      <c r="N15">
+        <v>-1.1369853599999999</v>
+      </c>
+      <c r="O15">
+        <v>3.0912560400000002</v>
+      </c>
+      <c r="R15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>-3.72655542</v>
+      </c>
+      <c r="T15">
+        <v>-1.18051624</v>
+      </c>
+      <c r="U15">
+        <v>2.9846720800000002</v>
+      </c>
+    </row>
+    <row r="16" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>-4.2321718700000002</v>
+      </c>
+      <c r="N16">
+        <v>-0.71324140999999996</v>
+      </c>
+      <c r="O16">
+        <v>1.4600682700000001</v>
+      </c>
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>-4.24550625</v>
+      </c>
+      <c r="T16">
+        <v>-0.76842222000000004</v>
+      </c>
+      <c r="U16">
+        <v>1.3238987900000001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>-1.43523394</v>
+      </c>
+      <c r="N17">
+        <v>-1.0782461299999999</v>
+      </c>
+      <c r="O17">
+        <v>0.86574614999999999</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>-1.42259084</v>
+      </c>
+      <c r="T17">
+        <v>-1.10674728</v>
+      </c>
+      <c r="U17">
+        <v>0.89301227999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>0.88137752000000003</v>
+      </c>
+      <c r="N18">
+        <v>1.49512402</v>
+      </c>
+      <c r="O18">
+        <v>-3.2771520700000001</v>
+      </c>
+      <c r="R18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>0.85762015999999996</v>
+      </c>
+      <c r="T18">
+        <v>1.5636389100000001</v>
+      </c>
+      <c r="U18">
+        <v>-3.1960113899999998</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>1.0100008300000001</v>
+      </c>
+      <c r="N19">
+        <v>2.3825432800000002</v>
+      </c>
+      <c r="O19">
+        <v>-2.64974248</v>
+      </c>
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>0.96769782000000004</v>
+      </c>
+      <c r="T19">
+        <v>2.4441654599999998</v>
+      </c>
+      <c r="U19">
+        <v>-2.5619415399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>0.85174344000000002</v>
+      </c>
+      <c r="N20">
+        <v>1.82074724</v>
+      </c>
+      <c r="O20">
+        <v>-4.3235995200000001</v>
+      </c>
+      <c r="R20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>0.80082856000000002</v>
+      </c>
+      <c r="T20">
+        <v>1.8980022700000001</v>
+      </c>
+      <c r="U20">
+        <v>-4.2353814999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>1.74975799</v>
+      </c>
+      <c r="N21">
+        <v>0.84261839999999999</v>
+      </c>
+      <c r="O21">
+        <v>-3.1386124099999999</v>
+      </c>
+      <c r="R21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>1.74617899</v>
+      </c>
+      <c r="T21">
+        <v>0.94083094</v>
+      </c>
+      <c r="U21">
+        <v>-3.0790366200000001</v>
+      </c>
+    </row>
+    <row r="22" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>-0.40449513999999998</v>
+      </c>
+      <c r="N22">
+        <v>0.75396976999999998</v>
+      </c>
+      <c r="O22">
+        <v>-2.9146821200000002</v>
+      </c>
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>-0.39366184999999998</v>
+      </c>
+      <c r="T22">
+        <v>0.77682202</v>
+      </c>
+      <c r="U22">
+        <v>-2.82152577</v>
+      </c>
+    </row>
+    <row r="23" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>-1.63259493</v>
+      </c>
+      <c r="N23">
+        <v>1.6512096300000001</v>
+      </c>
+      <c r="O23">
+        <v>-3.0690193200000002</v>
+      </c>
+      <c r="R23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>-1.6513944</v>
+      </c>
+      <c r="T23">
+        <v>1.63784353</v>
+      </c>
+      <c r="U23">
+        <v>-2.9211008299999999</v>
+      </c>
+    </row>
+    <row r="24" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>-2.5411043100000001</v>
+      </c>
+      <c r="N24">
+        <v>1.1107555899999999</v>
+      </c>
+      <c r="O24">
+        <v>-2.7838419399999998</v>
+      </c>
+      <c r="R24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>-2.5325394600000002</v>
+      </c>
+      <c r="T24">
+        <v>1.0588811499999999</v>
+      </c>
+      <c r="U24">
+        <v>-2.6384221499999998</v>
+      </c>
+    </row>
+    <row r="25" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>-1.7329131200000001</v>
+      </c>
+      <c r="N25">
+        <v>1.98126577</v>
+      </c>
+      <c r="O25">
+        <v>-4.10956995</v>
+      </c>
+      <c r="R25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>-1.78507226</v>
+      </c>
+      <c r="T25">
+        <v>2.0011341300000001</v>
+      </c>
+      <c r="U25">
+        <v>-3.9434456899999999</v>
+      </c>
+    </row>
+    <row r="26" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>-1.5380724800000001</v>
+      </c>
+      <c r="N26">
+        <v>2.53807764</v>
+      </c>
+      <c r="O26">
+        <v>-2.43645113</v>
+      </c>
+      <c r="R26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>-1.5735591</v>
+      </c>
+      <c r="T26">
+        <v>2.5008379500000002</v>
+      </c>
+      <c r="U26">
+        <v>-2.2585922799999998</v>
+      </c>
+    </row>
+    <row r="27" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>-0.56015915000000005</v>
+      </c>
+      <c r="N27">
+        <v>-0.56583181999999999</v>
+      </c>
+      <c r="O27">
+        <v>-3.7170675700000002</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>-0.52508630999999995</v>
+      </c>
+      <c r="T27">
+        <v>-0.53060448999999998</v>
+      </c>
+      <c r="U27">
+        <v>-3.64185596</v>
+      </c>
+    </row>
+    <row r="28" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>-1.48981337</v>
+      </c>
+      <c r="N28">
+        <v>-0.61582974999999995</v>
+      </c>
+      <c r="O28">
+        <v>-4.2871895799999997</v>
+      </c>
+      <c r="R28" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>-1.4411192100000001</v>
+      </c>
+      <c r="T28">
+        <v>-0.58136242999999999</v>
+      </c>
+      <c r="U28">
+        <v>-4.2268117900000002</v>
+      </c>
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>0.29089368999999998</v>
+      </c>
+      <c r="N29">
+        <v>-0.77411856999999995</v>
+      </c>
+      <c r="O29">
+        <v>-4.3690248</v>
+      </c>
+      <c r="R29" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>0.33792177000000001</v>
+      </c>
+      <c r="T29">
+        <v>-0.71802478000000003</v>
+      </c>
+      <c r="U29">
+        <v>-4.27928804</v>
+      </c>
+    </row>
+    <row r="30" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>-0.44387521000000002</v>
+      </c>
+      <c r="N30">
+        <v>-1.0401882099999999</v>
+      </c>
+      <c r="O30">
+        <v>-1.46346526</v>
+      </c>
+      <c r="R30" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>-0.38934083000000003</v>
+      </c>
+      <c r="T30">
+        <v>-1.03783268</v>
+      </c>
+      <c r="U30">
+        <v>-1.3990002100000001</v>
+      </c>
+    </row>
+    <row r="31" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2.9416760900000001</v>
+      </c>
+      <c r="N31">
+        <v>0.26032815999999998</v>
+      </c>
+      <c r="O31">
+        <v>2.62842142</v>
+      </c>
+      <c r="R31" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>3.2745339800000002</v>
+      </c>
+      <c r="T31">
+        <v>0.66485287000000004</v>
+      </c>
+      <c r="U31">
+        <v>2.3331226200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>2.5862681300000001</v>
+      </c>
+      <c r="N32">
+        <v>1.29136815</v>
+      </c>
+      <c r="O32">
+        <v>2.6840192799999998</v>
+      </c>
+      <c r="R32" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>3.1042143699999998</v>
+      </c>
+      <c r="T32">
+        <v>1.7181779399999999</v>
+      </c>
+      <c r="U32">
+        <v>2.11724801</v>
+      </c>
+    </row>
+    <row r="33" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>3.9522927600000002</v>
+      </c>
+      <c r="N33">
+        <v>0.21532354000000001</v>
+      </c>
+      <c r="O33">
+        <v>3.05133711</v>
+      </c>
+      <c r="R33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>4.3101155499999999</v>
+      </c>
+      <c r="T33">
+        <v>0.5477611</v>
+      </c>
+      <c r="U33">
+        <v>2.6640509899999998</v>
+      </c>
+    </row>
+    <row r="34" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>2.2794906099999999</v>
+      </c>
+      <c r="N34">
+        <v>-0.36242565999999998</v>
+      </c>
+      <c r="O34">
+        <v>3.2390816600000001</v>
+      </c>
+      <c r="R34" t="s">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>2.61253928</v>
+      </c>
+      <c r="T34">
+        <v>0.37292005</v>
+      </c>
+      <c r="U34">
+        <v>3.14950383</v>
+      </c>
+    </row>
+    <row r="35" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>2.9519480499999999</v>
+      </c>
+      <c r="N35">
+        <v>-0.22972429999999999</v>
+      </c>
+      <c r="O35">
+        <v>1.17959072</v>
+      </c>
+      <c r="R35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>3.0155110999999999</v>
+      </c>
+      <c r="T35">
+        <v>-0.1962363</v>
+      </c>
+      <c r="U35">
+        <v>1.10471875</v>
+      </c>
+    </row>
+    <row r="36" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>3.8807773299999999</v>
+      </c>
+      <c r="N36">
+        <v>0.60872289999999996</v>
+      </c>
+      <c r="O36">
+        <v>0.30946952999999999</v>
+      </c>
+      <c r="R36" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>3.8254973900000002</v>
+      </c>
+      <c r="T36">
+        <v>0.27452599</v>
+      </c>
+      <c r="U36">
+        <v>-0.10341662</v>
+      </c>
+    </row>
+    <row r="37" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>3.8533561500000002</v>
+      </c>
+      <c r="N37">
+        <v>0.26265417000000002</v>
+      </c>
+      <c r="O37">
+        <v>-0.72881624</v>
+      </c>
+      <c r="R37" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>3.68051328</v>
+      </c>
+      <c r="T37">
+        <v>-0.40534900000000001</v>
+      </c>
+      <c r="U37">
+        <v>-0.94534448999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>4.9120264100000002</v>
+      </c>
+      <c r="N38">
+        <v>0.54020431000000002</v>
+      </c>
+      <c r="O38">
+        <v>0.67546764999999998</v>
+      </c>
+      <c r="R38" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>4.89161249</v>
+      </c>
+      <c r="T38">
+        <v>0.30810601999999998</v>
+      </c>
+      <c r="U38">
+        <v>0.13656429</v>
+      </c>
+    </row>
+    <row r="39" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L39" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>3.5777817199999999</v>
+      </c>
+      <c r="N39">
+        <v>1.6580146499999999</v>
+      </c>
+      <c r="O39">
+        <v>0.32640697000000002</v>
+      </c>
+      <c r="R39" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>3.5043821899999998</v>
+      </c>
+      <c r="T39">
+        <v>1.2697337099999999</v>
+      </c>
+      <c r="U39">
+        <v>-0.41218272</v>
+      </c>
+    </row>
+    <row r="40" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L40" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>3.30597232</v>
+      </c>
+      <c r="N40">
+        <v>-1.73622856</v>
+      </c>
+      <c r="O40">
+        <v>1.1009647300000001</v>
+      </c>
+      <c r="R40" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>3.2645478300000002</v>
+      </c>
+      <c r="T40">
+        <v>-1.6921402800000001</v>
+      </c>
+      <c r="U40">
+        <v>1.4028753599999999</v>
+      </c>
+    </row>
+    <row r="41" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>3.9974046799999998</v>
+      </c>
+      <c r="N41">
+        <v>-1.96808388</v>
+      </c>
+      <c r="O41">
+        <v>0.28604439999999998</v>
+      </c>
+      <c r="R41" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>4.1395193800000003</v>
+      </c>
+      <c r="T41">
+        <v>-2.0985798600000001</v>
+      </c>
+      <c r="U41">
+        <v>0.90155660000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>3.6816092999999999</v>
+      </c>
+      <c r="N42">
+        <v>-2.14876669</v>
+      </c>
+      <c r="O42">
+        <v>2.0383962000000002</v>
+      </c>
+      <c r="R42" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>3.3118175600000002</v>
+      </c>
+      <c r="T42">
+        <v>-1.9027732900000001</v>
+      </c>
+      <c r="U42">
+        <v>2.4717917699999998</v>
+      </c>
+    </row>
+    <row r="43" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>1.1129869999999999</v>
+      </c>
+      <c r="N43">
+        <v>-1.42366492</v>
+      </c>
+      <c r="O43">
+        <v>0.48566820999999999</v>
+      </c>
+      <c r="R43" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>1.14371899</v>
+      </c>
+      <c r="T43">
+        <v>-1.41490022</v>
+      </c>
+      <c r="U43">
+        <v>0.56941008000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L44" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>-0.59396093000000005</v>
+      </c>
+      <c r="N44">
+        <v>-3.4506557299999998</v>
+      </c>
+      <c r="O44">
+        <v>-7.4858789999999995E-2</v>
+      </c>
+      <c r="R44" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>-0.52160525999999996</v>
+      </c>
+      <c r="T44">
+        <v>-3.46267309</v>
+      </c>
+      <c r="U44">
+        <v>-3.1941539999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L45" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>-1.02693513</v>
+      </c>
+      <c r="N45">
+        <v>-4.1812577099999997</v>
+      </c>
+      <c r="O45">
+        <v>-1.1946870999999999</v>
+      </c>
+      <c r="R45" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>-0.89185325000000004</v>
+      </c>
+      <c r="T45">
+        <v>-4.1952914200000002</v>
+      </c>
+      <c r="U45">
+        <v>-1.1704760999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>-1.1929817300000001</v>
+      </c>
+      <c r="N46">
+        <v>-3.6655375299999999</v>
+      </c>
+      <c r="O46">
+        <v>-2.13304793</v>
+      </c>
+      <c r="R46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>-1.0213217699999999</v>
+      </c>
+      <c r="T46">
+        <v>-3.6815394399999999</v>
+      </c>
+      <c r="U46">
+        <v>-2.1119644200000001</v>
+      </c>
+    </row>
+    <row r="47" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>-1.23721908</v>
+      </c>
+      <c r="N47">
+        <v>-5.5620245199999996</v>
+      </c>
+      <c r="O47">
+        <v>-1.13097516</v>
+      </c>
+      <c r="R47" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>-1.0912716600000001</v>
+      </c>
+      <c r="T47">
+        <v>-5.5761367999999996</v>
+      </c>
+      <c r="U47">
+        <v>-1.11739254</v>
+      </c>
+    </row>
+    <row r="48" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>-1.5701826999999999</v>
+      </c>
+      <c r="N48">
+        <v>-6.0958476199999998</v>
+      </c>
+      <c r="O48">
+        <v>-2.01700225</v>
+      </c>
+      <c r="R48" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48">
+        <v>-1.3753253400000001</v>
+      </c>
+      <c r="T48">
+        <v>-6.1111352500000002</v>
+      </c>
+      <c r="U48">
+        <v>-2.0163097799999998</v>
+      </c>
+    </row>
+    <row r="49" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L49" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>-1.0214559000000001</v>
+      </c>
+      <c r="N49">
+        <v>-6.2537110299999998</v>
+      </c>
+      <c r="O49">
+        <v>5.9740189999999999E-2</v>
+      </c>
+      <c r="R49" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>-0.92723584999999997</v>
+      </c>
+      <c r="T49">
+        <v>-6.2661238299999997</v>
+      </c>
+      <c r="U49">
+        <v>7.9591460000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>-1.1779410800000001</v>
+      </c>
+      <c r="N50">
+        <v>-7.3273616099999996</v>
+      </c>
+      <c r="O50">
+        <v>0.10931055000000001</v>
+      </c>
+      <c r="R50" t="s">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>-1.0814802100000001</v>
+      </c>
+      <c r="T50">
+        <v>-7.3376802400000001</v>
+      </c>
+      <c r="U50">
+        <v>0.12130555</v>
+      </c>
+    </row>
+    <row r="51" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>-0.59814177999999996</v>
+      </c>
+      <c r="N51">
+        <v>-5.5501552600000004</v>
+      </c>
+      <c r="O51">
+        <v>1.1896530999999999</v>
+      </c>
+      <c r="R51" t="s">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>-0.56111235000000004</v>
+      </c>
+      <c r="T51">
+        <v>-5.5613708300000004</v>
+      </c>
+      <c r="U51">
+        <v>1.22593332</v>
+      </c>
+    </row>
+    <row r="52" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>-0.42940496</v>
+      </c>
+      <c r="N52">
+        <v>-6.0750450699999998</v>
+      </c>
+      <c r="O52">
+        <v>2.1257667800000002</v>
+      </c>
+      <c r="R52" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>-0.42916901000000002</v>
+      </c>
+      <c r="T52">
+        <v>-6.0849153200000003</v>
+      </c>
+      <c r="U52">
+        <v>2.1656726599999998</v>
+      </c>
+    </row>
+    <row r="53" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>-0.39151086000000002</v>
+      </c>
+      <c r="N53">
+        <v>-4.1740168999999998</v>
+      </c>
+      <c r="O53">
+        <v>1.11715242</v>
+      </c>
+      <c r="R53" t="s">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>-0.3640371</v>
+      </c>
+      <c r="T53">
+        <v>-4.1855467400000004</v>
+      </c>
+      <c r="U53">
+        <v>1.16460345</v>
+      </c>
+    </row>
+    <row r="54" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>-5.6696339999999998E-2</v>
+      </c>
+      <c r="N54">
+        <v>-3.6477968600000001</v>
+      </c>
+      <c r="O54">
+        <v>2.0065751999999999</v>
+      </c>
+      <c r="R54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54">
+        <v>-7.6372800000000005E-2</v>
+      </c>
+      <c r="T54">
+        <v>-3.66002363</v>
+      </c>
+      <c r="U54">
+        <v>2.0677230400000002</v>
+      </c>
+    </row>
+    <row r="55" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L55" t="s">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>0.32060970999999999</v>
+      </c>
+      <c r="N55">
+        <v>2.8017789199999998</v>
+      </c>
+      <c r="O55">
+        <v>1.4826725599999999</v>
+      </c>
+      <c r="R55" t="s">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>0.28279111000000001</v>
+      </c>
+      <c r="T55">
+        <v>2.7402068900000001</v>
+      </c>
+      <c r="U55">
+        <v>1.6299794400000001</v>
+      </c>
+    </row>
+    <row r="56" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L56" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>-0.59760769999999996</v>
+      </c>
+      <c r="N56">
+        <v>3.0736337599999999</v>
+      </c>
+      <c r="O56">
+        <v>2.0123050199999999</v>
+      </c>
+      <c r="R56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S56">
+        <v>-0.64478027000000004</v>
+      </c>
+      <c r="T56">
+        <v>3.03782503</v>
+      </c>
+      <c r="U56">
+        <v>2.1217514400000002</v>
+      </c>
+    </row>
+    <row r="57" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L57" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>1.15163152</v>
+      </c>
+      <c r="N57">
+        <v>2.7308044699999998</v>
+      </c>
+      <c r="O57">
+        <v>2.1886260599999998</v>
+      </c>
+      <c r="R57" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57">
+        <v>1.07692002</v>
+      </c>
+      <c r="T57">
+        <v>2.6160995900000001</v>
+      </c>
+      <c r="U57">
+        <v>2.3650597000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L58" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0.58913459000000001</v>
+      </c>
+      <c r="N58">
+        <v>3.6717963400000002</v>
+      </c>
+      <c r="O58">
+        <v>0.32522066999999999</v>
+      </c>
+      <c r="R58" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>0.62118368999999996</v>
+      </c>
+      <c r="T58">
+        <v>3.60180159</v>
+      </c>
+      <c r="U58">
+        <v>0.49093331000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>-0.47415599000000003</v>
+      </c>
+      <c r="N59">
+        <v>4.2001955200000003</v>
+      </c>
+      <c r="O59">
+        <v>-0.45335934</v>
+      </c>
+      <c r="R59" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>-0.39272205999999998</v>
+      </c>
+      <c r="T59">
+        <v>4.2450470100000004</v>
+      </c>
+      <c r="U59">
+        <v>-0.26536929999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L60" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>-1.4963815199999999</v>
+      </c>
+      <c r="N60">
+        <v>4.04704307</v>
+      </c>
+      <c r="O60">
+        <v>-0.11368386</v>
+      </c>
+      <c r="R60" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60">
+        <v>-1.41824182</v>
+      </c>
+      <c r="T60">
+        <v>4.1815423699999998</v>
+      </c>
+      <c r="U60">
+        <v>8.1946699999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L61" t="s">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>-0.23248692000000001</v>
+      </c>
+      <c r="N61">
+        <v>4.9501436999999999</v>
+      </c>
+      <c r="O61">
+        <v>-1.60401087</v>
+      </c>
+      <c r="R61" t="s">
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>-9.2593129999999996E-2</v>
+      </c>
+      <c r="T61">
+        <v>4.9977838500000002</v>
+      </c>
+      <c r="U61">
+        <v>-1.3954099200000001</v>
+      </c>
+    </row>
+    <row r="62" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>-1.0690757799999999</v>
+      </c>
+      <c r="N62">
+        <v>5.3573485099999996</v>
+      </c>
+      <c r="O62">
+        <v>-2.1644862300000001</v>
+      </c>
+      <c r="R62" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62">
+        <v>-0.89031819999999995</v>
+      </c>
+      <c r="T62">
+        <v>5.49557012</v>
+      </c>
+      <c r="U62">
+        <v>-1.9334553699999999</v>
+      </c>
+    </row>
+    <row r="63" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>1.0758163999999999</v>
+      </c>
+      <c r="N63">
+        <v>5.19176897</v>
+      </c>
+      <c r="O63">
+        <v>-2.0315821199999999</v>
+      </c>
+      <c r="R63" t="s">
+        <v>3</v>
+      </c>
+      <c r="S63">
+        <v>1.22774421</v>
+      </c>
+      <c r="T63">
+        <v>5.12966532</v>
+      </c>
+      <c r="U63">
+        <v>-1.8301770399999999</v>
+      </c>
+    </row>
+    <row r="64" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L64" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>1.2644306300000001</v>
+      </c>
+      <c r="N64">
+        <v>5.7783074699999997</v>
+      </c>
+      <c r="O64">
+        <v>-2.92432151</v>
+      </c>
+      <c r="R64" t="s">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>1.46035249</v>
+      </c>
+      <c r="T64">
+        <v>5.7238127700000003</v>
+      </c>
+      <c r="U64">
+        <v>-2.7040490199999998</v>
+      </c>
+    </row>
+    <row r="65" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L65" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>2.14115426</v>
+      </c>
+      <c r="N65">
+        <v>4.6801835599999997</v>
+      </c>
+      <c r="O65">
+        <v>-1.28496923</v>
+      </c>
+      <c r="R65" t="s">
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>2.24332786</v>
+      </c>
+      <c r="T65">
+        <v>4.4952889300000001</v>
+      </c>
+      <c r="U65">
+        <v>-1.11545523</v>
+      </c>
+    </row>
+    <row r="66" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L66" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>3.1635382299999999</v>
+      </c>
+      <c r="N66">
+        <v>4.8742148099999998</v>
+      </c>
+      <c r="O66">
+        <v>-1.5965828500000001</v>
+      </c>
+      <c r="R66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>3.27346783</v>
+      </c>
+      <c r="T66">
+        <v>4.5982490199999999</v>
+      </c>
+      <c r="U66">
+        <v>-1.43428723</v>
+      </c>
+    </row>
+    <row r="67" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>1.9037784600000001</v>
+      </c>
+      <c r="N67">
+        <v>3.9355609199999999</v>
+      </c>
+      <c r="O67">
+        <v>-0.13177368</v>
+      </c>
+      <c r="R67" t="s">
+        <v>3</v>
+      </c>
+      <c r="S67">
+        <v>1.9482319400000001</v>
+      </c>
+      <c r="T67">
+        <v>3.7410876499999999</v>
+      </c>
+      <c r="U67">
+        <v>1.713953E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L68" t="s">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>2.74031541</v>
+      </c>
+      <c r="N68">
+        <v>3.5857549</v>
+      </c>
+      <c r="O68">
+        <v>0.46540229999999999</v>
+      </c>
+      <c r="R68" t="s">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <v>2.7535256700000001</v>
+      </c>
+      <c r="T68">
+        <v>3.29302092</v>
+      </c>
+      <c r="U68">
+        <v>0.58564311999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>-1.45548444</v>
+      </c>
+      <c r="N69">
+        <v>0.20632391</v>
+      </c>
+      <c r="O69">
+        <v>1.09019774</v>
+      </c>
+      <c r="R69" t="s">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>-1.4661328499999999</v>
+      </c>
+      <c r="T69">
+        <v>0.17395981999999999</v>
+      </c>
+      <c r="U69">
+        <v>1.1195222199999999</v>
+      </c>
+    </row>
+    <row r="70" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>-0.31877828000000002</v>
+      </c>
+      <c r="N70">
+        <v>0.25262423000000001</v>
+      </c>
+      <c r="O70">
+        <v>-1.50427636</v>
+      </c>
+      <c r="R70" t="s">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>-0.26599360999999999</v>
+      </c>
+      <c r="T70">
+        <v>0.25212210000000002</v>
+      </c>
+      <c r="U70">
+        <v>-1.42485704</v>
+      </c>
+    </row>
+    <row r="71" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L71" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1.5506989200000001</v>
+      </c>
+      <c r="N71">
+        <v>-0.20393810000000001</v>
+      </c>
+      <c r="O71">
+        <v>0.63270897000000004</v>
+      </c>
+      <c r="R71" t="s">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.5621097900000001</v>
+      </c>
+      <c r="T71">
+        <v>-0.19271435000000001</v>
+      </c>
+      <c r="U71">
+        <v>0.72373330000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>-0.60718262000000001</v>
+      </c>
+      <c r="N72">
+        <v>-1.63089723</v>
+      </c>
+      <c r="O72">
+        <v>-2.6960983299999999</v>
+      </c>
+      <c r="R72" t="s">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>-0.57670403999999997</v>
+      </c>
+      <c r="T72">
+        <v>-1.6090987400000001</v>
+      </c>
+      <c r="U72">
+        <v>-2.6383065700000001</v>
+      </c>
+    </row>
+    <row r="73" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>-2.4377866400000001</v>
+      </c>
+      <c r="N73">
+        <v>-1.7755952500000001</v>
+      </c>
+      <c r="O73">
+        <v>1.4955537999999999</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>-2.4520975699999998</v>
+      </c>
+      <c r="T73">
+        <v>-1.81343948</v>
+      </c>
+      <c r="U73">
+        <v>1.4663783699999999</v>
+      </c>
+    </row>
+    <row r="74" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2.0269438000000002</v>
+      </c>
+      <c r="N74">
+        <v>-2.4020953500000002</v>
+      </c>
+      <c r="O74">
+        <v>0.79782797999999999</v>
+      </c>
+      <c r="P74" t="s">
+        <v>12</v>
+      </c>
+      <c r="R74" t="s">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>2.0798469499999999</v>
+      </c>
+      <c r="T74">
+        <v>-2.3787530100000001</v>
+      </c>
+      <c r="U74">
+        <v>0.86590829000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37858B7D-257D-454A-8929-F0E5BB68B834}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E72" sqref="B1:E72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tomfebn.xlsx
+++ b/tomfebn.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alolinco/Desktop/Research/tom-fe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5289C5FF-B228-6E4D-A85C-AA568E93189E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBB809B-750F-B840-8FA7-013E467ABB6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="660" windowWidth="24240" windowHeight="19940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="600" windowWidth="24240" windowHeight="19940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="UTD sheet" sheetId="2" r:id="rId2"/>
     <sheet name="Fall 2018 coords" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Posthess05" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_2018_1fe03_coordinates" localSheetId="1">'UTD sheet'!$AB$1:$AI$73</definedName>
     <definedName name="_2018.06.15_coordinates" localSheetId="1">'UTD sheet'!$W$3:$AC$76</definedName>
     <definedName name="fedft05_coords" localSheetId="2">'Fall 2018 coords'!$P$2:$Y$74</definedName>
-    <definedName name="feopt05_6311g_coords" localSheetId="3">Sheet2!$A$1:$J$72</definedName>
     <definedName name="feopt05_coords" localSheetId="1">'UTD sheet'!$CS$3:$DB$75</definedName>
     <definedName name="fescf02_631g_coor" localSheetId="1">'UTD sheet'!$AV$3:$BD$74</definedName>
     <definedName name="fescf04_coords" localSheetId="1">'UTD sheet'!$BK$3:$BT$74</definedName>
@@ -105,29 +104,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{AE60ED89-89EE-D647-AC36-34EE68D47419}" name="feopt05_6311g_coords" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt6311g/feopt05_6311g_coords.rtf" space="1" consecutive="1" delimiter="\">
-      <textFields count="16">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="5" xr16:uid="{42CE4C14-EBE0-BD4E-A456-3B2BC2FCB249}" name="feopt05_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{42CE4C14-EBE0-BD4E-A456-3B2BC2FCB249}" name="feopt05_coords" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fe_opt05_20180830/feopt05_coords.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -149,7 +126,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{02AA09EE-88A3-0146-8F71-2D458CA775EB}" name="fescf02_631g_coor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{02AA09EE-88A3-0146-8F71-2D458CA775EB}" name="fescf02_631g_coor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf02/fescf02_631g_coor.rtf" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -165,7 +142,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{4F88F51A-9ACF-0043-97FB-09DD6C883B08}" name="fescf04_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{4F88F51A-9ACF-0043-97FB-09DD6C883B08}" name="fescf04_coords" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf04_coords.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -187,7 +164,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{AF90CF41-864B-284F-9638-9593176733EF}" name="fescf04_s30_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" xr16:uid="{AF90CF41-864B-284F-9638-9593176733EF}" name="fescf04_s30_coords" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf04_s30_coords.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -209,7 +186,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{8EDD7A7A-542F-9E4D-95A4-33BD898C8051}" name="fescf04_s35_coords" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" xr16:uid="{8EDD7A7A-542F-9E4D-95A4-33BD898C8051}" name="fescf04_s35_coords" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf04_s35_coords.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -231,7 +208,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" xr16:uid="{D01B20FA-C2DD-FE45-AB19-569113F1FBAE}" name="fescf05" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" xr16:uid="{D01B20FA-C2DD-FE45-AB19-569113F1FBAE}" name="fescf05" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf05.rtf" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -253,7 +230,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" xr16:uid="{C8DD9D3E-BD82-1B43-A5AF-C6A1AACF6A4E}" name="fescf051" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" xr16:uid="{C8DD9D3E-BD82-1B43-A5AF-C6A1AACF6A4E}" name="fescf051" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/fescf05.rtf" space="1" consecutive="1" delimiter="\">
       <textFields count="16">
         <textField/>
@@ -275,7 +252,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="run1_coordinates_end" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="run1_coordinates_end" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt6311+g-star/run1/run1_coordinates_end.rtf" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -291,7 +268,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="testtomfe" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="testtomfe" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" tab="0" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -305,7 +282,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="tomfe_6311+g*" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="tomfe_6311+g*" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -321,7 +298,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="tomfe_631g" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="tomfe_631g" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe_6311+g*.rtf" space="1" consecutive="1">
       <textFields count="7">
         <textField/>
@@ -334,7 +311,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="tomfe1-02coor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="15" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="tomfe1-02coor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfe1-02coor.rtf" tab="0" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -350,7 +327,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="tomfebn_start02" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="tomfebn_start02" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr firstRow="8" sourceFile="/Users/alolinco/Desktop/Research/tom-fe/tomfe_opt631g/tomfebn_1fe/tomfebn_start02.rtf" space="1" consecutive="1">
       <textFields count="7">
         <textField/>
@@ -367,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="301">
   <si>
     <t>Fe</t>
   </si>
@@ -952,13 +929,331 @@
   </si>
   <si>
     <t>6311g</t>
+  </si>
+  <si>
+    <t>6311+g*</t>
+  </si>
+  <si>
+    <t>Used for fe_hess05</t>
+  </si>
+  <si>
+    <t>feopt06</t>
+  </si>
+  <si>
+    <t>Fe      0.05308431     1.28052580     0.31234351</t>
+  </si>
+  <si>
+    <t>B     -0.30543610    -1.82500458    -0.04728875</t>
+  </si>
+  <si>
+    <t>C     -2.02981639     0.69045991     3.44829655</t>
+  </si>
+  <si>
+    <t>H     -1.49328327    -0.19829065     3.79330754</t>
+  </si>
+  <si>
+    <t>H     -2.84520841     0.89073908     4.15147495</t>
+  </si>
+  <si>
+    <t>H     -1.33663154     1.53179979     3.47523117</t>
+  </si>
+  <si>
+    <t>C     -2.58026409     0.47248098     2.04016471</t>
+  </si>
+  <si>
+    <t>C     -3.41571760     1.65567064     1.57853699</t>
+  </si>
+  <si>
+    <t>H     -2.84088135     2.58341360     1.62685645</t>
+  </si>
+  <si>
+    <t>H     -4.29843140     1.77881360     2.21440434</t>
+  </si>
+  <si>
+    <t>H     -3.75343156     1.51535022     0.54797810</t>
+  </si>
+  <si>
+    <t>C     -3.35821819    -0.84951830     1.95870149</t>
+  </si>
+  <si>
+    <t>H     -3.69690561    -1.22527266     2.92543292</t>
+  </si>
+  <si>
+    <t>H     -4.21029520    -0.79377538     1.27204335</t>
+  </si>
+  <si>
+    <t>C     -1.42430770    -1.07175994     0.86894536</t>
+  </si>
+  <si>
+    <t>C      0.84463269     1.56450140    -3.25360823</t>
+  </si>
+  <si>
+    <t>H      0.95358723     2.47164655    -2.65483832</t>
+  </si>
+  <si>
+    <t>H      0.78632486     1.86287880    -4.30574751</t>
+  </si>
+  <si>
+    <t>H      1.74347472     0.95600414    -3.12040591</t>
+  </si>
+  <si>
+    <t>C     -0.39893931     0.78359532    -2.85072994</t>
+  </si>
+  <si>
+    <t>C     -1.65219903     1.64262843    -2.98555470</t>
+  </si>
+  <si>
+    <t>H     -2.54119515     1.08221853    -2.68203712</t>
+  </si>
+  <si>
+    <t>H     -1.78834593     1.96629846    -4.02274370</t>
+  </si>
+  <si>
+    <t>H     -1.57746696     2.53641272    -2.36117435</t>
+  </si>
+  <si>
+    <t>C     -0.52638602    -0.53760219    -3.63699341</t>
+  </si>
+  <si>
+    <t>H     -1.44321263    -0.60385567    -4.22759104</t>
+  </si>
+  <si>
+    <t>H      0.33189657    -0.73049623    -4.28665161</t>
+  </si>
+  <si>
+    <t>C     -0.38860959    -0.98677170    -1.44084942</t>
+  </si>
+  <si>
+    <t>C      3.29372048     0.63657683     2.31440568</t>
+  </si>
+  <si>
+    <t>H      3.15758872     1.70162332     2.11941695</t>
+  </si>
+  <si>
+    <t>H      4.32988358     0.48817369     2.63638997</t>
+  </si>
+  <si>
+    <t>H      2.63465738     0.35726848     3.14056206</t>
+  </si>
+  <si>
+    <t>C      2.99838853    -0.20076206     1.07923770</t>
+  </si>
+  <si>
+    <t>C      3.82464099     0.26684225    -0.11712010</t>
+  </si>
+  <si>
+    <t>H      3.67182612    -0.39571589    -0.97414732</t>
+  </si>
+  <si>
+    <t>H      4.89288902     0.27347112     0.12424092</t>
+  </si>
+  <si>
+    <t>H      3.53359032     1.27579296    -0.41912892</t>
+  </si>
+  <si>
+    <t>C      3.21251750    -1.69851983     1.35613990</t>
+  </si>
+  <si>
+    <t>H      4.10437822    -2.11410785     0.88339460</t>
+  </si>
+  <si>
+    <t>H      3.23365521    -1.92789257     2.42703581</t>
+  </si>
+  <si>
+    <t>C      1.15902996    -1.38021958     0.53258586</t>
+  </si>
+  <si>
+    <t>C     -0.51999038    -3.42183757    -0.06233851</t>
+  </si>
+  <si>
+    <t>C     -0.89046019    -4.17411566    -1.18268251</t>
+  </si>
+  <si>
+    <t>H     -1.02570987    -3.68213511    -2.13863230</t>
+  </si>
+  <si>
+    <t>C     -1.08971488    -5.55165482    -1.11062253</t>
+  </si>
+  <si>
+    <t>H     -1.37601495    -6.09995079    -2.00486612</t>
+  </si>
+  <si>
+    <t>C     -0.92615682    -6.22366047     0.09284243</t>
+  </si>
+  <si>
+    <t>H     -1.08049071    -7.29786015     0.15070476</t>
+  </si>
+  <si>
+    <t>C     -0.56161803    -5.50104666     1.22480547</t>
+  </si>
+  <si>
+    <t>H     -0.43036148    -6.00941515     2.17682648</t>
+  </si>
+  <si>
+    <t>C     -0.36559823    -4.12912369     1.13957071</t>
+  </si>
+  <si>
+    <t>H     -0.08123415    -3.59226656     2.04220247</t>
+  </si>
+  <si>
+    <t>C      0.15497482     2.85603738     1.54666448</t>
+  </si>
+  <si>
+    <t>H     -0.80400574     3.16507983     1.96869707</t>
+  </si>
+  <si>
+    <t>H      0.91686392     2.81873012     2.32636642</t>
+  </si>
+  <si>
+    <t>C      0.52134562     3.62667799     0.36195213</t>
+  </si>
+  <si>
+    <t>C     -0.47033632     4.15224075    -0.50221658</t>
+  </si>
+  <si>
+    <t>H     -1.51444888     4.07614803    -0.20615172</t>
+  </si>
+  <si>
+    <t>C     -0.13957155     4.81648254    -1.67432761</t>
+  </si>
+  <si>
+    <t>H     -0.92868316     5.23178482    -2.29559851</t>
+  </si>
+  <si>
+    <t>C      1.19329047     4.96882868    -2.05009389</t>
+  </si>
+  <si>
+    <t>H      1.45161724     5.49671555    -2.96276236</t>
+  </si>
+  <si>
+    <t>C      2.18836761     4.43753719    -1.23602724</t>
+  </si>
+  <si>
+    <t>H      3.23298573     4.55282640    -1.51245713</t>
+  </si>
+  <si>
+    <t>C      1.86140656     3.77245212    -0.06108701</t>
+  </si>
+  <si>
+    <t>H      2.65566516     3.41043568     0.58491546</t>
+  </si>
+  <si>
+    <t>N     -1.46707034     0.19585761     1.10508585</t>
+  </si>
+  <si>
+    <t>N     -0.27456889     0.29352719    -1.46418381</t>
+  </si>
+  <si>
+    <t>N      1.56698060    -0.17029783     0.71056414</t>
+  </si>
+  <si>
+    <t>O     -0.56461346    -1.56859565    -2.63991857</t>
+  </si>
+  <si>
+    <t>O     -2.41878939    -1.78692949     1.41608226</t>
+  </si>
+  <si>
+    <t>O      2.06347752    -2.33967161     0.79187685</t>
+  </si>
+  <si>
+    <t>feopt07</t>
+  </si>
+  <si>
+    <t>Fe      0.16195115     1.15102506     0.26889980</t>
+  </si>
+  <si>
+    <t>C      0.38864794     2.62661624     1.60583746</t>
+  </si>
+  <si>
+    <t>H     -0.53474694     2.93806458     2.09940839</t>
+  </si>
+  <si>
+    <t>H      1.18684053     2.50454640     2.33918428</t>
+  </si>
+  <si>
+    <t>C      0.72511816     3.46874475     0.46160641</t>
+  </si>
+  <si>
+    <t>C     -0.28722861     4.09191942    -0.30862221</t>
+  </si>
+  <si>
+    <t>H     -1.31726408     4.03187847     0.03639847</t>
+  </si>
+  <si>
+    <t>C      0.01011240     4.82837629    -1.44603419</t>
+  </si>
+  <si>
+    <t>H     -0.79220694     5.31647539    -1.99302745</t>
+  </si>
+  <si>
+    <t>C      1.32730985     4.95988369    -1.88034892</t>
+  </si>
+  <si>
+    <t>H      1.56003606     5.54392862    -2.76527691</t>
+  </si>
+  <si>
+    <t>C      2.34028435     4.33456182    -1.16061211</t>
+  </si>
+  <si>
+    <t>H      3.37337732     4.43220615    -1.48329282</t>
+  </si>
+  <si>
+    <t>C      2.04685044     3.59693217    -0.02064480</t>
+  </si>
+  <si>
+    <t>H      2.85768056     3.15993404     0.55452812</t>
+  </si>
+  <si>
+    <t>C      0.38515496     2.66331625     1.72435880</t>
+  </si>
+  <si>
+    <t>H     -0.44131351     2.80504370     2.42445731</t>
+  </si>
+  <si>
+    <t>H      1.33050644     2.59467793     2.26418066</t>
+  </si>
+  <si>
+    <t>C      0.36724114     3.63117599     0.63139844</t>
+  </si>
+  <si>
+    <t>C     -0.85274041     4.16804790     0.15196133</t>
+  </si>
+  <si>
+    <t>H     -1.77062917     3.94004726     0.68966138</t>
+  </si>
+  <si>
+    <t>C     -0.89467883     5.02565956    -0.93763518</t>
+  </si>
+  <si>
+    <t>H     -1.84729195     5.44043684    -1.25645089</t>
+  </si>
+  <si>
+    <t>C      0.27412736     5.37072849    -1.61275148</t>
+  </si>
+  <si>
+    <t>H      0.24153170     6.04909134    -2.45959258</t>
+  </si>
+  <si>
+    <t>C      1.48416162     4.83579636    -1.18282366</t>
+  </si>
+  <si>
+    <t>H      2.40535998     5.09957790    -1.69541693</t>
+  </si>
+  <si>
+    <t>C      1.53057814     3.97736168    -0.09165478</t>
+  </si>
+  <si>
+    <t>H      2.49145579     3.61198425     0.25828719</t>
+  </si>
+  <si>
+    <t>feopt08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -994,13 +1289,27 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1019,11 +1328,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1046,71 +1358,67 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="testtomfe" connectionId="13" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe_6311+g*" connectionId="13" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_coords" connectionId="7" xr16:uid="{0EACA580-A4B7-AE47-ADBE-D49205E98595}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_coords" connectionId="6" xr16:uid="{0EACA580-A4B7-AE47-ADBE-D49205E98595}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_s30_coords" connectionId="8" xr16:uid="{8018AD0E-E07A-364F-98CA-4224DCC4E142}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf02_631g_coor" connectionId="5" xr16:uid="{3AF8AE73-85C2-C34F-B0D5-46836E36B42A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf02_631g_coor" connectionId="6" xr16:uid="{3AF8AE73-85C2-C34F-B0D5-46836E36B42A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf05" connectionId="9" xr16:uid="{93D7A032-4C04-6549-B01E-8621DC3041B5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe1-02coor" connectionId="16" xr16:uid="{00000000-0016-0000-0100-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf05_1" connectionId="10" xr16:uid="{A3551B01-7EAB-8E41-A26C-C33123B0B459}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="feopt05_coords" connectionId="5" xr16:uid="{71C92314-5655-4241-92EB-012A9836F714}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfebn_start02" connectionId="16" xr16:uid="{00000000-0016-0000-0100-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_s35_coords" connectionId="8" xr16:uid="{137057B6-B9E4-3643-9B68-1FB6CFFFCF01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fedft05_coords" connectionId="3" xr16:uid="{66F142BC-748E-2644-83A2-108843A27753}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_s35_coords" connectionId="9" xr16:uid="{137057B6-B9E4-3643-9B68-1FB6CFFFCF01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="feopt05_6311g_coords" connectionId="4" xr16:uid="{5AE73355-1452-CD47-9473-BCDFBAC39503}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe_6311+g*" connectionId="14" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe_631g" connectionId="14" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe_631g" connectionId="15" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="testtomfe" connectionId="12" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf05_1" connectionId="11" xr16:uid="{A3551B01-7EAB-8E41-A26C-C33123B0B459}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="run1_coordinates_end" connectionId="11" xr16:uid="{00000000-0016-0000-0100-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf04_s30_coords" connectionId="7" xr16:uid="{8018AD0E-E07A-364F-98CA-4224DCC4E142}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="feopt05_coords" connectionId="4" xr16:uid="{71C92314-5655-4241-92EB-012A9836F714}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018_1fe03_coordinates" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fescf05" connectionId="10" xr16:uid="{93D7A032-4C04-6549-B01E-8621DC3041B5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="run1_coordinates_end" connectionId="12" xr16:uid="{00000000-0016-0000-0100-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfebn_start02" connectionId="17" xr16:uid="{00000000-0016-0000-0100-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018.06.15_coordinates" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018.06.15_coordinates" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tomfe1-02coor" connectionId="15" xr16:uid="{00000000-0016-0000-0100-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4906,7 +5214,7 @@
   <dimension ref="A1:CW75"/>
   <sheetViews>
     <sheetView topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CN1" sqref="CN1:CW74"/>
+      <selection activeCell="CT31" sqref="CT31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19736,10 +20044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BB2B4B-904D-EA4B-B0ED-571736EDF1C2}">
-  <dimension ref="F1:U74"/>
+  <dimension ref="F1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F50" workbookViewId="0">
-      <selection activeCell="U74" sqref="R3:U74"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:Z74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19762,7 +20070,7 @@
     <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
         <v>118</v>
       </c>
@@ -19772,8 +20080,14 @@
       <c r="R1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>119</v>
       </c>
@@ -19783,8 +20097,14 @@
       <c r="R2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>195</v>
+      </c>
+      <c r="X2" s="1">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="3" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F3" s="3" t="s">
         <v>120</v>
       </c>
@@ -19812,8 +20132,20 @@
       <c r="U3">
         <v>0.33111718000000001</v>
       </c>
-    </row>
-    <row r="4" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>5.3084310000000003E-2</v>
+      </c>
+      <c r="Y3">
+        <v>1.28052583</v>
+      </c>
+      <c r="Z3">
+        <v>0.3123435</v>
+      </c>
+    </row>
+    <row r="4" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F4" s="3" t="s">
         <v>121</v>
       </c>
@@ -19841,8 +20173,20 @@
       <c r="U4">
         <v>-9.7872399999999991E-3</v>
       </c>
-    </row>
-    <row r="5" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>-0.30543609999999999</v>
+      </c>
+      <c r="Y4">
+        <v>-1.82500453</v>
+      </c>
+      <c r="Z4">
+        <v>-4.7288749999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F5" s="3" t="s">
         <v>122</v>
       </c>
@@ -19870,8 +20214,20 @@
       <c r="U5">
         <v>3.4642392200000001</v>
       </c>
-    </row>
-    <row r="6" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>-2.0298163699999998</v>
+      </c>
+      <c r="Y5">
+        <v>0.69045992</v>
+      </c>
+      <c r="Z5">
+        <v>3.4482965800000001</v>
+      </c>
+    </row>
+    <row r="6" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>123</v>
       </c>
@@ -19899,8 +20255,20 @@
       <c r="U6">
         <v>3.8046582899999999</v>
       </c>
-    </row>
-    <row r="7" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>-1.4932832899999999</v>
+      </c>
+      <c r="Y6">
+        <v>-0.19829063999999999</v>
+      </c>
+      <c r="Z6">
+        <v>3.7933076400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F7" s="3" t="s">
         <v>124</v>
       </c>
@@ -19928,8 +20296,20 @@
       <c r="U7">
         <v>4.1727717599999998</v>
       </c>
-    </row>
-    <row r="8" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>-2.84520843</v>
+      </c>
+      <c r="Y7">
+        <v>0.89073910000000001</v>
+      </c>
+      <c r="Z7">
+        <v>4.1514751099999998</v>
+      </c>
+    </row>
+    <row r="8" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F8" s="3" t="s">
         <v>125</v>
       </c>
@@ -19957,8 +20337,20 @@
       <c r="U8">
         <v>3.4612863599999999</v>
       </c>
-    </row>
-    <row r="9" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>-1.3366315499999999</v>
+      </c>
+      <c r="Y8">
+        <v>1.53179983</v>
+      </c>
+      <c r="Z8">
+        <v>3.4752312000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F9" s="3" t="s">
         <v>126</v>
       </c>
@@ -19986,8 +20378,20 @@
       <c r="U9">
         <v>2.0651367999999999</v>
       </c>
-    </row>
-    <row r="10" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>-2.5802639900000002</v>
+      </c>
+      <c r="Y9">
+        <v>0.47248098999999999</v>
+      </c>
+      <c r="Z9">
+        <v>2.0401646000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F10" s="3" t="s">
         <v>127</v>
       </c>
@@ -20015,8 +20419,20 @@
       <c r="U10">
         <v>1.5760252100000001</v>
       </c>
-    </row>
-    <row r="11" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>-3.41571772</v>
+      </c>
+      <c r="Y10">
+        <v>1.6556706999999999</v>
+      </c>
+      <c r="Z10">
+        <v>1.5785370299999999</v>
+      </c>
+    </row>
+    <row r="11" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F11" s="3" t="s">
         <v>128</v>
       </c>
@@ -20044,8 +20460,20 @@
       <c r="U11">
         <v>1.59802413</v>
       </c>
-    </row>
-    <row r="12" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>-2.8408813999999998</v>
+      </c>
+      <c r="Y11">
+        <v>2.5834136999999999</v>
+      </c>
+      <c r="Z11">
+        <v>1.62685641</v>
+      </c>
+    </row>
+    <row r="12" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F12" s="3" t="s">
         <v>129</v>
       </c>
@@ -20073,8 +20501,20 @@
       <c r="U12">
         <v>2.2128485800000002</v>
       </c>
-    </row>
-    <row r="13" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W12" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>-4.2984314000000001</v>
+      </c>
+      <c r="Y12">
+        <v>1.77881355</v>
+      </c>
+      <c r="Z12">
+        <v>2.2144044100000002</v>
+      </c>
+    </row>
+    <row r="13" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F13" s="3" t="s">
         <v>130</v>
       </c>
@@ -20102,8 +20542,20 @@
       <c r="U13">
         <v>0.55226189000000003</v>
       </c>
-    </row>
-    <row r="14" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W13" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>-3.7534316200000002</v>
+      </c>
+      <c r="Y13">
+        <v>1.5153502400000001</v>
+      </c>
+      <c r="Z13">
+        <v>0.54797812999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F14" s="3" t="s">
         <v>131</v>
       </c>
@@ -20131,8 +20583,20 @@
       <c r="U14">
         <v>2.0111413599999999</v>
       </c>
-    </row>
-    <row r="15" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>-3.3582180899999998</v>
+      </c>
+      <c r="Y14">
+        <v>-0.84951829999999995</v>
+      </c>
+      <c r="Z14">
+        <v>1.9587014700000001</v>
+      </c>
+    </row>
+    <row r="15" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F15" s="3" t="s">
         <v>132</v>
       </c>
@@ -20160,8 +20624,20 @@
       <c r="U15">
         <v>2.9846720800000002</v>
       </c>
-    </row>
-    <row r="16" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W15" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>-3.6969055900000001</v>
+      </c>
+      <c r="Y15">
+        <v>-1.22527271</v>
+      </c>
+      <c r="Z15">
+        <v>2.9254328200000002</v>
+      </c>
+    </row>
+    <row r="16" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F16" s="3" t="s">
         <v>133</v>
       </c>
@@ -20189,8 +20665,20 @@
       <c r="U16">
         <v>1.3238987900000001</v>
       </c>
-    </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>-4.2102951400000004</v>
+      </c>
+      <c r="Y16">
+        <v>-0.79377538999999997</v>
+      </c>
+      <c r="Z16">
+        <v>1.27204333</v>
+      </c>
+    </row>
+    <row r="17" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F17" s="3" t="s">
         <v>134</v>
       </c>
@@ -20218,8 +20706,20 @@
       <c r="U17">
         <v>0.89301227999999999</v>
       </c>
-    </row>
-    <row r="18" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>-1.42430766</v>
+      </c>
+      <c r="Y17">
+        <v>-1.0717599499999999</v>
+      </c>
+      <c r="Z17">
+        <v>0.86894534999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F18" s="3" t="s">
         <v>135</v>
       </c>
@@ -20247,8 +20747,20 @@
       <c r="U18">
         <v>-3.1960113899999998</v>
       </c>
-    </row>
-    <row r="19" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W18" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>0.84463270000000001</v>
+      </c>
+      <c r="Y18">
+        <v>1.5645013699999999</v>
+      </c>
+      <c r="Z18">
+        <v>-3.2536082999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F19" s="3" t="s">
         <v>136</v>
       </c>
@@ -20276,8 +20788,20 @@
       <c r="U19">
         <v>-2.5619415399999999</v>
       </c>
-    </row>
-    <row r="20" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W19" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <v>0.95358721000000002</v>
+      </c>
+      <c r="Y19">
+        <v>2.4716466600000002</v>
+      </c>
+      <c r="Z19">
+        <v>-2.6548383800000002</v>
+      </c>
+    </row>
+    <row r="20" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F20" s="3" t="s">
         <v>137</v>
       </c>
@@ -20305,8 +20829,20 @@
       <c r="U20">
         <v>-4.2353814999999999</v>
       </c>
-    </row>
-    <row r="21" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W20" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>0.78632484999999996</v>
+      </c>
+      <c r="Y20">
+        <v>1.86287881</v>
+      </c>
+      <c r="Z20">
+        <v>-4.3057477000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F21" s="3" t="s">
         <v>138</v>
       </c>
@@ -20334,8 +20870,20 @@
       <c r="U21">
         <v>-3.0790366200000001</v>
       </c>
-    </row>
-    <row r="22" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W21" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>1.7434746699999999</v>
+      </c>
+      <c r="Y21">
+        <v>0.95600417000000004</v>
+      </c>
+      <c r="Z21">
+        <v>-3.1204059700000002</v>
+      </c>
+    </row>
+    <row r="22" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F22" s="3" t="s">
         <v>139</v>
       </c>
@@ -20363,8 +20911,20 @@
       <c r="U22">
         <v>-2.82152577</v>
       </c>
-    </row>
-    <row r="23" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>-0.3989393</v>
+      </c>
+      <c r="Y22">
+        <v>0.78359533999999997</v>
+      </c>
+      <c r="Z22">
+        <v>-2.8507298599999999</v>
+      </c>
+    </row>
+    <row r="23" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F23" s="3" t="s">
         <v>140</v>
       </c>
@@ -20392,8 +20952,20 @@
       <c r="U23">
         <v>-2.9211008299999999</v>
       </c>
-    </row>
-    <row r="24" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>-1.6521990200000001</v>
+      </c>
+      <c r="Y23">
+        <v>1.6426283800000001</v>
+      </c>
+      <c r="Z23">
+        <v>-2.9855547800000002</v>
+      </c>
+    </row>
+    <row r="24" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F24" s="3" t="s">
         <v>141</v>
       </c>
@@ -20421,8 +20993,20 @@
       <c r="U24">
         <v>-2.6384221499999998</v>
       </c>
-    </row>
-    <row r="25" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>-2.5411950499999998</v>
+      </c>
+      <c r="Y24">
+        <v>1.0822184699999999</v>
+      </c>
+      <c r="Z24">
+        <v>-2.6820371999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F25" s="3" t="s">
         <v>142</v>
       </c>
@@ -20450,8 +21034,20 @@
       <c r="U25">
         <v>-3.9434456899999999</v>
       </c>
-    </row>
-    <row r="26" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>-1.78834589</v>
+      </c>
+      <c r="Y25">
+        <v>1.96629846</v>
+      </c>
+      <c r="Z25">
+        <v>-4.02274362</v>
+      </c>
+    </row>
+    <row r="26" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F26" s="3" t="s">
         <v>143</v>
       </c>
@@ -20479,8 +21075,20 @@
       <c r="U26">
         <v>-2.2585922799999998</v>
       </c>
-    </row>
-    <row r="27" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W26" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>-1.57746699</v>
+      </c>
+      <c r="Y26">
+        <v>2.53641278</v>
+      </c>
+      <c r="Z26">
+        <v>-2.36117446</v>
+      </c>
+    </row>
+    <row r="27" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F27" s="3" t="s">
         <v>144</v>
       </c>
@@ -20508,8 +21116,20 @@
       <c r="U27">
         <v>-3.64185596</v>
       </c>
-    </row>
-    <row r="28" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W27" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>-0.52638600999999996</v>
+      </c>
+      <c r="Y27">
+        <v>-0.53760218999999998</v>
+      </c>
+      <c r="Z27">
+        <v>-3.6369934599999998</v>
+      </c>
+    </row>
+    <row r="28" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F28" s="3" t="s">
         <v>145</v>
       </c>
@@ -20537,8 +21157,20 @@
       <c r="U28">
         <v>-4.2268117900000002</v>
       </c>
-    </row>
-    <row r="29" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W28" t="s">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>-1.4432126700000001</v>
+      </c>
+      <c r="Y28">
+        <v>-0.60385568000000001</v>
+      </c>
+      <c r="Z28">
+        <v>-4.2275911400000004</v>
+      </c>
+    </row>
+    <row r="29" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F29" s="3" t="s">
         <v>146</v>
       </c>
@@ -20566,8 +21198,20 @@
       <c r="U29">
         <v>-4.27928804</v>
       </c>
-    </row>
-    <row r="30" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W29" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29">
+        <v>0.33189657</v>
+      </c>
+      <c r="Y29">
+        <v>-0.73049620000000004</v>
+      </c>
+      <c r="Z29">
+        <v>-4.2866518200000003</v>
+      </c>
+    </row>
+    <row r="30" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F30" s="3" t="s">
         <v>147</v>
       </c>
@@ -20595,8 +21239,20 @@
       <c r="U30">
         <v>-1.3990002100000001</v>
       </c>
-    </row>
-    <row r="31" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W30" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <v>-0.3886096</v>
+      </c>
+      <c r="Y30">
+        <v>-0.98677168999999998</v>
+      </c>
+      <c r="Z30">
+        <v>-1.4408494599999999</v>
+      </c>
+    </row>
+    <row r="31" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F31" s="3" t="s">
         <v>148</v>
       </c>
@@ -20624,8 +21280,20 @@
       <c r="U31">
         <v>2.3331226200000001</v>
       </c>
-    </row>
-    <row r="32" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W31" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>3.2937205899999999</v>
+      </c>
+      <c r="Y31">
+        <v>0.63657680999999999</v>
+      </c>
+      <c r="Z31">
+        <v>2.3144055699999999</v>
+      </c>
+    </row>
+    <row r="32" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F32" s="3" t="s">
         <v>149</v>
       </c>
@@ -20653,8 +21321,20 @@
       <c r="U32">
         <v>2.11724801</v>
       </c>
-    </row>
-    <row r="33" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W32" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32">
+        <v>3.1575887100000002</v>
+      </c>
+      <c r="Y32">
+        <v>1.70162334</v>
+      </c>
+      <c r="Z32">
+        <v>2.1194169999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F33" s="3" t="s">
         <v>150</v>
       </c>
@@ -20682,8 +21362,20 @@
       <c r="U33">
         <v>2.6640509899999998</v>
       </c>
-    </row>
-    <row r="34" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>4.3298833999999999</v>
+      </c>
+      <c r="Y33">
+        <v>0.48817368999999999</v>
+      </c>
+      <c r="Z33">
+        <v>2.6363900600000001</v>
+      </c>
+    </row>
+    <row r="34" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F34" s="3" t="s">
         <v>151</v>
       </c>
@@ -20711,8 +21403,20 @@
       <c r="U34">
         <v>3.14950383</v>
       </c>
-    </row>
-    <row r="35" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W34" t="s">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>2.6346573100000001</v>
+      </c>
+      <c r="Y34">
+        <v>0.35726848999999999</v>
+      </c>
+      <c r="Z34">
+        <v>3.14056202</v>
+      </c>
+    </row>
+    <row r="35" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F35" s="3" t="s">
         <v>152</v>
       </c>
@@ -20740,8 +21444,20 @@
       <c r="U35">
         <v>1.10471875</v>
       </c>
-    </row>
-    <row r="36" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W35" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <v>2.9983885199999998</v>
+      </c>
+      <c r="Y35">
+        <v>-0.20076206999999999</v>
+      </c>
+      <c r="Z35">
+        <v>1.0792377099999999</v>
+      </c>
+    </row>
+    <row r="36" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F36" s="3" t="s">
         <v>153</v>
       </c>
@@ -20769,8 +21485,20 @@
       <c r="U36">
         <v>-0.10341662</v>
       </c>
-    </row>
-    <row r="37" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W36" t="s">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>3.82464103</v>
+      </c>
+      <c r="Y36">
+        <v>0.26684225</v>
+      </c>
+      <c r="Z36">
+        <v>-0.1171201</v>
+      </c>
+    </row>
+    <row r="37" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F37" s="3" t="s">
         <v>154</v>
       </c>
@@ -20798,8 +21526,20 @@
       <c r="U37">
         <v>-0.94534448999999998</v>
       </c>
-    </row>
-    <row r="38" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W37" t="s">
+        <v>4</v>
+      </c>
+      <c r="X37">
+        <v>3.6718260300000001</v>
+      </c>
+      <c r="Y37">
+        <v>-0.39571588000000002</v>
+      </c>
+      <c r="Z37">
+        <v>-0.97414729</v>
+      </c>
+    </row>
+    <row r="38" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F38" s="3" t="s">
         <v>155</v>
       </c>
@@ -20827,8 +21567,20 @@
       <c r="U38">
         <v>0.13656429</v>
       </c>
-    </row>
-    <row r="39" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W38" t="s">
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <v>4.8928892299999998</v>
+      </c>
+      <c r="Y38">
+        <v>0.27347111000000002</v>
+      </c>
+      <c r="Z38">
+        <v>0.12424092</v>
+      </c>
+    </row>
+    <row r="39" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F39" s="3" t="s">
         <v>156</v>
       </c>
@@ -20856,8 +21608,20 @@
       <c r="U39">
         <v>-0.41218272</v>
       </c>
-    </row>
-    <row r="40" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W39" t="s">
+        <v>4</v>
+      </c>
+      <c r="X39">
+        <v>3.5335902199999998</v>
+      </c>
+      <c r="Y39">
+        <v>1.27579295</v>
+      </c>
+      <c r="Z39">
+        <v>-0.41912891000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F40" s="3" t="s">
         <v>157</v>
       </c>
@@ -20885,8 +21649,20 @@
       <c r="U40">
         <v>1.4028753599999999</v>
       </c>
-    </row>
-    <row r="41" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W40" t="s">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>3.2125176099999999</v>
+      </c>
+      <c r="Y40">
+        <v>-1.69851982</v>
+      </c>
+      <c r="Z40">
+        <v>1.3561398499999999</v>
+      </c>
+    </row>
+    <row r="41" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F41" s="3" t="s">
         <v>158</v>
       </c>
@@ -20914,8 +21690,20 @@
       <c r="U41">
         <v>0.90155660000000004</v>
       </c>
-    </row>
-    <row r="42" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W41" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>4.1043784600000004</v>
+      </c>
+      <c r="Y41">
+        <v>-2.1141078000000002</v>
+      </c>
+      <c r="Z41">
+        <v>0.88339460999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F42" s="3" t="s">
         <v>159</v>
       </c>
@@ -20943,8 +21731,20 @@
       <c r="U42">
         <v>2.4717917699999998</v>
       </c>
-    </row>
-    <row r="43" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W42" t="s">
+        <v>4</v>
+      </c>
+      <c r="X42">
+        <v>3.2336552900000002</v>
+      </c>
+      <c r="Y42">
+        <v>-1.9278925600000001</v>
+      </c>
+      <c r="Z42">
+        <v>2.4270357699999998</v>
+      </c>
+    </row>
+    <row r="43" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F43" s="3" t="s">
         <v>160</v>
       </c>
@@ -20972,8 +21772,20 @@
       <c r="U43">
         <v>0.56941008000000004</v>
       </c>
-    </row>
-    <row r="44" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W43" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>1.1590300200000001</v>
+      </c>
+      <c r="Y43">
+        <v>-1.3802196200000001</v>
+      </c>
+      <c r="Z43">
+        <v>0.53258587999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F44" s="3" t="s">
         <v>161</v>
       </c>
@@ -21001,8 +21813,20 @@
       <c r="U44">
         <v>-3.1941539999999997E-2</v>
       </c>
-    </row>
-    <row r="45" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W44" t="s">
+        <v>3</v>
+      </c>
+      <c r="X44">
+        <v>-0.51999039999999996</v>
+      </c>
+      <c r="Y44">
+        <v>-3.4218376300000002</v>
+      </c>
+      <c r="Z44">
+        <v>-6.233851E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F45" s="3" t="s">
         <v>162</v>
       </c>
@@ -21030,8 +21854,20 @@
       <c r="U45">
         <v>-1.1704760999999999</v>
       </c>
-    </row>
-    <row r="46" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W45" t="s">
+        <v>3</v>
+      </c>
+      <c r="X45">
+        <v>-0.89046018000000005</v>
+      </c>
+      <c r="Y45">
+        <v>-4.1741158699999996</v>
+      </c>
+      <c r="Z45">
+        <v>-1.1826825599999999</v>
+      </c>
+    </row>
+    <row r="46" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F46" s="3" t="s">
         <v>163</v>
       </c>
@@ -21059,8 +21895,20 @@
       <c r="U46">
         <v>-2.1119644200000001</v>
       </c>
-    </row>
-    <row r="47" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W46" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46">
+        <v>-1.02570988</v>
+      </c>
+      <c r="Y46">
+        <v>-3.68213517</v>
+      </c>
+      <c r="Z46">
+        <v>-2.1386323900000002</v>
+      </c>
+    </row>
+    <row r="47" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F47" s="3" t="s">
         <v>164</v>
       </c>
@@ -21088,8 +21936,20 @@
       <c r="U47">
         <v>-1.11739254</v>
       </c>
-    </row>
-    <row r="48" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W47" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47">
+        <v>-1.08971493</v>
+      </c>
+      <c r="Y47">
+        <v>-5.5516549199999998</v>
+      </c>
+      <c r="Z47">
+        <v>-1.11062255</v>
+      </c>
+    </row>
+    <row r="48" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F48" s="3" t="s">
         <v>165</v>
       </c>
@@ -21117,8 +21977,20 @@
       <c r="U48">
         <v>-2.0163097799999998</v>
       </c>
-    </row>
-    <row r="49" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W48" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48">
+        <v>-1.37601489</v>
+      </c>
+      <c r="Y48">
+        <v>-6.09995098</v>
+      </c>
+      <c r="Z48">
+        <v>-2.0048662300000002</v>
+      </c>
+    </row>
+    <row r="49" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F49" s="3" t="s">
         <v>166</v>
       </c>
@@ -21146,8 +22018,20 @@
       <c r="U49">
         <v>7.9591460000000003E-2</v>
       </c>
-    </row>
-    <row r="50" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W49" t="s">
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <v>-0.9261568</v>
+      </c>
+      <c r="Y49">
+        <v>-6.2236605599999999</v>
+      </c>
+      <c r="Z49">
+        <v>9.2842430000000004E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F50" s="3" t="s">
         <v>167</v>
       </c>
@@ -21175,8 +22059,20 @@
       <c r="U50">
         <v>0.12130555</v>
       </c>
-    </row>
-    <row r="51" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W50" t="s">
+        <v>4</v>
+      </c>
+      <c r="X50">
+        <v>-1.08049076</v>
+      </c>
+      <c r="Y50">
+        <v>-7.2978599700000002</v>
+      </c>
+      <c r="Z50">
+        <v>0.15070475999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F51" s="3" t="s">
         <v>168</v>
       </c>
@@ -21204,8 +22100,20 @@
       <c r="U51">
         <v>1.22593332</v>
       </c>
-    </row>
-    <row r="52" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W51" t="s">
+        <v>3</v>
+      </c>
+      <c r="X51">
+        <v>-0.56161804000000004</v>
+      </c>
+      <c r="Y51">
+        <v>-5.5010464900000002</v>
+      </c>
+      <c r="Z51">
+        <v>1.2248054399999999</v>
+      </c>
+    </row>
+    <row r="52" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F52" s="3" t="s">
         <v>169</v>
       </c>
@@ -21233,8 +22141,20 @@
       <c r="U52">
         <v>2.1656726599999998</v>
       </c>
-    </row>
-    <row r="53" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52">
+        <v>-0.43036148000000002</v>
+      </c>
+      <c r="Y52">
+        <v>-6.0094153700000001</v>
+      </c>
+      <c r="Z52">
+        <v>2.1768264400000001</v>
+      </c>
+    </row>
+    <row r="53" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F53" s="3" t="s">
         <v>170</v>
       </c>
@@ -21262,8 +22182,20 @@
       <c r="U53">
         <v>1.16460345</v>
       </c>
-    </row>
-    <row r="54" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W53" t="s">
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <v>-0.36559821999999997</v>
+      </c>
+      <c r="Y53">
+        <v>-4.1291235100000003</v>
+      </c>
+      <c r="Z53">
+        <v>1.1395707500000001</v>
+      </c>
+    </row>
+    <row r="54" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F54" s="3" t="s">
         <v>171</v>
       </c>
@@ -21291,8 +22223,20 @@
       <c r="U54">
         <v>2.0677230400000002</v>
       </c>
-    </row>
-    <row r="55" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W54" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54">
+        <v>-8.1234150000000005E-2</v>
+      </c>
+      <c r="Y54">
+        <v>-3.5922666099999998</v>
+      </c>
+      <c r="Z54">
+        <v>2.04220259</v>
+      </c>
+    </row>
+    <row r="55" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F55" s="3" t="s">
         <v>172</v>
       </c>
@@ -21320,8 +22264,20 @@
       <c r="U55">
         <v>1.6299794400000001</v>
       </c>
-    </row>
-    <row r="56" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W55" t="s">
+        <v>3</v>
+      </c>
+      <c r="X55">
+        <v>0.27978106000000003</v>
+      </c>
+      <c r="Y55">
+        <v>2.7561179099999999</v>
+      </c>
+      <c r="Z55">
+        <v>1.6492811199999999</v>
+      </c>
+    </row>
+    <row r="56" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F56" s="3" t="s">
         <v>173</v>
       </c>
@@ -21349,8 +22305,20 @@
       <c r="U56">
         <v>2.1217514400000002</v>
       </c>
-    </row>
-    <row r="57" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W56" t="s">
+        <v>4</v>
+      </c>
+      <c r="X56">
+        <v>-0.64361374999999998</v>
+      </c>
+      <c r="Y56">
+        <v>3.0675661600000002</v>
+      </c>
+      <c r="Z56">
+        <v>2.1428520600000001</v>
+      </c>
+    </row>
+    <row r="57" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F57" s="3" t="s">
         <v>174</v>
       </c>
@@ -21378,8 +22346,20 @@
       <c r="U57">
         <v>2.3650597000000002</v>
       </c>
-    </row>
-    <row r="58" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W57" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57">
+        <v>1.07797371</v>
+      </c>
+      <c r="Y57">
+        <v>2.6340478699999998</v>
+      </c>
+      <c r="Z57">
+        <v>2.38262792</v>
+      </c>
+    </row>
+    <row r="58" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F58" s="3" t="s">
         <v>175</v>
       </c>
@@ -21407,8 +22387,20 @@
       <c r="U58">
         <v>0.49093331000000001</v>
       </c>
-    </row>
-    <row r="59" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W58" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58">
+        <v>0.61625132000000005</v>
+      </c>
+      <c r="Y58">
+        <v>3.5982463999999998</v>
+      </c>
+      <c r="Z58">
+        <v>0.50504998999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F59" s="3" t="s">
         <v>176</v>
       </c>
@@ -21436,8 +22428,20 @@
       <c r="U59">
         <v>-0.26536929999999997</v>
       </c>
-    </row>
-    <row r="60" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W59" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59">
+        <v>-0.39609545000000002</v>
+      </c>
+      <c r="Y59">
+        <v>4.2214214500000002</v>
+      </c>
+      <c r="Z59">
+        <v>-0.26517851999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F60" s="3" t="s">
         <v>177</v>
       </c>
@@ -21465,8 +22469,20 @@
       <c r="U60">
         <v>8.1946699999999997E-2</v>
       </c>
-    </row>
-    <row r="61" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W60" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60">
+        <v>-1.42613089</v>
+      </c>
+      <c r="Y60">
+        <v>4.1613802499999997</v>
+      </c>
+      <c r="Z60">
+        <v>7.9842129999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F61" s="3" t="s">
         <v>178</v>
       </c>
@@ -21494,8 +22510,20 @@
       <c r="U61">
         <v>-1.3954099200000001</v>
       </c>
-    </row>
-    <row r="62" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W61" t="s">
+        <v>3</v>
+      </c>
+      <c r="X61">
+        <v>-9.8754400000000006E-2</v>
+      </c>
+      <c r="Y61">
+        <v>4.9578781200000002</v>
+      </c>
+      <c r="Z61">
+        <v>-1.4025905599999999</v>
+      </c>
+    </row>
+    <row r="62" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F62" s="3" t="s">
         <v>179</v>
       </c>
@@ -21523,8 +22551,20 @@
       <c r="U62">
         <v>-1.9334553699999999</v>
       </c>
-    </row>
-    <row r="63" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W62" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62">
+        <v>-0.90107378000000005</v>
+      </c>
+      <c r="Y62">
+        <v>5.4459774400000001</v>
+      </c>
+      <c r="Z62">
+        <v>-1.9495838000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F63" s="3" t="s">
         <v>180</v>
       </c>
@@ -21552,8 +22592,20 @@
       <c r="U63">
         <v>-1.8301770399999999</v>
       </c>
-    </row>
-    <row r="64" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W63" t="s">
+        <v>3</v>
+      </c>
+      <c r="X63">
+        <v>1.2184429800000001</v>
+      </c>
+      <c r="Y63">
+        <v>5.0893853699999996</v>
+      </c>
+      <c r="Z63">
+        <v>-1.8369052699999999</v>
+      </c>
+    </row>
+    <row r="64" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F64" s="3" t="s">
         <v>181</v>
       </c>
@@ -21581,8 +22633,20 @@
       <c r="U64">
         <v>-2.7040490199999998</v>
       </c>
-    </row>
-    <row r="65" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W64" t="s">
+        <v>4</v>
+      </c>
+      <c r="X64">
+        <v>1.45116925</v>
+      </c>
+      <c r="Y64">
+        <v>5.6734304299999998</v>
+      </c>
+      <c r="Z64">
+        <v>-2.7218331199999999</v>
+      </c>
+    </row>
+    <row r="65" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F65" s="3" t="s">
         <v>182</v>
       </c>
@@ -21610,8 +22674,20 @@
       <c r="U65">
         <v>-1.11545523</v>
       </c>
-    </row>
-    <row r="66" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W65" t="s">
+        <v>3</v>
+      </c>
+      <c r="X65">
+        <v>2.23141743</v>
+      </c>
+      <c r="Y65">
+        <v>4.4640636599999999</v>
+      </c>
+      <c r="Z65">
+        <v>-1.1171684</v>
+      </c>
+    </row>
+    <row r="66" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
@@ -21639,8 +22715,20 @@
       <c r="U66">
         <v>-1.43428723</v>
       </c>
-    </row>
-    <row r="67" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W66" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66">
+        <v>3.2645103799999999</v>
+      </c>
+      <c r="Y66">
+        <v>4.5617077699999999</v>
+      </c>
+      <c r="Z66">
+        <v>-1.4398491499999999</v>
+      </c>
+    </row>
+    <row r="67" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F67" s="3" t="s">
         <v>184</v>
       </c>
@@ -21668,8 +22756,20 @@
       <c r="U67">
         <v>1.713953E-2</v>
       </c>
-    </row>
-    <row r="68" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W67" t="s">
+        <v>3</v>
+      </c>
+      <c r="X67">
+        <v>1.9379836800000001</v>
+      </c>
+      <c r="Y67">
+        <v>3.7264337799999998</v>
+      </c>
+      <c r="Z67">
+        <v>2.2798840000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F68" s="3" t="s">
         <v>185</v>
       </c>
@@ -21697,8 +22797,20 @@
       <c r="U68">
         <v>0.58564311999999996</v>
       </c>
-    </row>
-    <row r="69" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W68" t="s">
+        <v>4</v>
+      </c>
+      <c r="X68">
+        <v>2.7488137199999998</v>
+      </c>
+      <c r="Y68">
+        <v>3.28943553</v>
+      </c>
+      <c r="Z68">
+        <v>0.59797171000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F69" s="3" t="s">
         <v>186</v>
       </c>
@@ -21726,8 +22838,20 @@
       <c r="U69">
         <v>1.1195222199999999</v>
       </c>
-    </row>
-    <row r="70" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W69" t="s">
+        <v>2</v>
+      </c>
+      <c r="X69">
+        <v>-1.4670704000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0.19585760999999999</v>
+      </c>
+      <c r="Z69">
+        <v>1.1050858699999999</v>
+      </c>
+    </row>
+    <row r="70" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F70" s="3" t="s">
         <v>187</v>
       </c>
@@ -21755,8 +22879,20 @@
       <c r="U70">
         <v>-1.42485704</v>
       </c>
-    </row>
-    <row r="71" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W70" t="s">
+        <v>2</v>
+      </c>
+      <c r="X70">
+        <v>-0.27456888000000002</v>
+      </c>
+      <c r="Y70">
+        <v>0.29352719999999999</v>
+      </c>
+      <c r="Z70">
+        <v>-1.46418381</v>
+      </c>
+    </row>
+    <row r="71" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F71" s="3" t="s">
         <v>188</v>
       </c>
@@ -21784,8 +22920,20 @@
       <c r="U71">
         <v>0.72373330000000002</v>
       </c>
-    </row>
-    <row r="72" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W71" t="s">
+        <v>2</v>
+      </c>
+      <c r="X71">
+        <v>1.56698062</v>
+      </c>
+      <c r="Y71">
+        <v>-0.17029783000000001</v>
+      </c>
+      <c r="Z71">
+        <v>0.71056412000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F72" s="3" t="s">
         <v>189</v>
       </c>
@@ -21813,8 +22961,20 @@
       <c r="U72">
         <v>-2.6383065700000001</v>
       </c>
-    </row>
-    <row r="73" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W72" t="s">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>-0.56461344000000002</v>
+      </c>
+      <c r="Y72">
+        <v>-1.5685956700000001</v>
+      </c>
+      <c r="Z72">
+        <v>-2.6399185699999999</v>
+      </c>
+    </row>
+    <row r="73" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F73" s="3" t="s">
         <v>190</v>
       </c>
@@ -21842,8 +23002,20 @@
       <c r="U73">
         <v>1.4663783699999999</v>
       </c>
-    </row>
-    <row r="74" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="W73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>-2.41878927</v>
+      </c>
+      <c r="Y73">
+        <v>-1.78692951</v>
+      </c>
+      <c r="Z73">
+        <v>1.4160822900000001</v>
+      </c>
+    </row>
+    <row r="74" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F74" s="3" t="s">
         <v>191</v>
       </c>
@@ -21873,6 +23045,18 @@
       </c>
       <c r="U74">
         <v>0.86590829000000002</v>
+      </c>
+      <c r="W74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>2.0634775799999998</v>
+      </c>
+      <c r="Y74">
+        <v>-2.33967167</v>
+      </c>
+      <c r="Z74">
+        <v>0.79187686999999995</v>
       </c>
     </row>
   </sheetData>
@@ -21881,23 +23065,1849 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37858B7D-257D-454A-8929-F0E5BB68B834}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938D6A16-BFE4-1E47-95F0-AD738167E67D}">
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43353</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43375</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43376</v>
+      </c>
+      <c r="P2" s="1">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5.3084310000000003E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.28052583</v>
+      </c>
+      <c r="D3">
+        <v>0.3123435</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="P3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-0.30543609999999999</v>
+      </c>
+      <c r="C4">
+        <v>-1.82500453</v>
+      </c>
+      <c r="D4">
+        <v>-4.7288749999999997E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-2.0298163699999998</v>
+      </c>
+      <c r="C5">
+        <v>0.69045992</v>
+      </c>
+      <c r="D5">
+        <v>3.4482965800000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-1.4932832899999999</v>
+      </c>
+      <c r="C6">
+        <v>-0.19829063999999999</v>
+      </c>
+      <c r="D6">
+        <v>3.7933076400000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-2.84520843</v>
+      </c>
+      <c r="C7">
+        <v>0.89073910000000001</v>
+      </c>
+      <c r="D7">
+        <v>4.1514751099999998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-1.3366315499999999</v>
+      </c>
+      <c r="C8">
+        <v>1.53179983</v>
+      </c>
+      <c r="D8">
+        <v>3.4752312000000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-2.5802639900000002</v>
+      </c>
+      <c r="C9">
+        <v>0.47248098999999999</v>
+      </c>
+      <c r="D9">
+        <v>2.0401646000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" t="s">
+        <v>204</v>
+      </c>
+      <c r="P9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-3.41571772</v>
+      </c>
+      <c r="C10">
+        <v>1.6556706999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.5785370299999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-2.8408813999999998</v>
+      </c>
+      <c r="C11">
+        <v>2.5834136999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.62685641</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>-4.2984314000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.77881355</v>
+      </c>
+      <c r="D12">
+        <v>2.2144044100000002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>-3.7534316200000002</v>
+      </c>
+      <c r="C13">
+        <v>1.5153502400000001</v>
+      </c>
+      <c r="D13">
+        <v>0.54797812999999995</v>
+      </c>
+      <c r="F13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" t="s">
+        <v>208</v>
+      </c>
+      <c r="P13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>-3.3582180899999998</v>
+      </c>
+      <c r="C14">
+        <v>-0.84951829999999995</v>
+      </c>
+      <c r="D14">
+        <v>1.9587014700000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>-3.6969055900000001</v>
+      </c>
+      <c r="C15">
+        <v>-1.22527271</v>
+      </c>
+      <c r="D15">
+        <v>2.9254328200000002</v>
+      </c>
+      <c r="F15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" t="s">
+        <v>210</v>
+      </c>
+      <c r="P15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>-4.2102951400000004</v>
+      </c>
+      <c r="C16">
+        <v>-0.79377538999999997</v>
+      </c>
+      <c r="D16">
+        <v>1.27204333</v>
+      </c>
+      <c r="F16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>-1.42430766</v>
+      </c>
+      <c r="C17">
+        <v>-1.0717599499999999</v>
+      </c>
+      <c r="D17">
+        <v>0.86894534999999995</v>
+      </c>
+      <c r="F17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0.84463270000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.5645013699999999</v>
+      </c>
+      <c r="D18">
+        <v>-3.2536082999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" t="s">
+        <v>213</v>
+      </c>
+      <c r="P18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.95358721000000002</v>
+      </c>
+      <c r="C19">
+        <v>2.4716466600000002</v>
+      </c>
+      <c r="D19">
+        <v>-2.6548383800000002</v>
+      </c>
+      <c r="F19" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" t="s">
+        <v>214</v>
+      </c>
+      <c r="P19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.78632484999999996</v>
+      </c>
+      <c r="C20">
+        <v>1.86287881</v>
+      </c>
+      <c r="D20">
+        <v>-4.3057477000000004</v>
+      </c>
+      <c r="F20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s">
+        <v>215</v>
+      </c>
+      <c r="P20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1.7434746699999999</v>
+      </c>
+      <c r="C21">
+        <v>0.95600417000000004</v>
+      </c>
+      <c r="D21">
+        <v>-3.1204059700000002</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="P21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>-0.3989393</v>
+      </c>
+      <c r="C22">
+        <v>0.78359533999999997</v>
+      </c>
+      <c r="D22">
+        <v>-2.8507298599999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="P22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>-1.6521990200000001</v>
+      </c>
+      <c r="C23">
+        <v>1.6426283800000001</v>
+      </c>
+      <c r="D23">
+        <v>-2.9855547800000002</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="P23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>-2.5411950499999998</v>
+      </c>
+      <c r="C24">
+        <v>1.0822184699999999</v>
+      </c>
+      <c r="D24">
+        <v>-2.6820371999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="P24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>-1.78834589</v>
+      </c>
+      <c r="C25">
+        <v>1.96629846</v>
+      </c>
+      <c r="D25">
+        <v>-4.02274362</v>
+      </c>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="P25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>-1.57746699</v>
+      </c>
+      <c r="C26">
+        <v>2.53641278</v>
+      </c>
+      <c r="D26">
+        <v>-2.36117446</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="P26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>-0.52638600999999996</v>
+      </c>
+      <c r="C27">
+        <v>-0.53760218999999998</v>
+      </c>
+      <c r="D27">
+        <v>-3.6369934599999998</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="P27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>-1.4432126700000001</v>
+      </c>
+      <c r="C28">
+        <v>-0.60385568000000001</v>
+      </c>
+      <c r="D28">
+        <v>-4.2275911400000004</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="P28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0.33189657</v>
+      </c>
+      <c r="C29">
+        <v>-0.73049620000000004</v>
+      </c>
+      <c r="D29">
+        <v>-4.2866518200000003</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>-0.3886096</v>
+      </c>
+      <c r="C30">
+        <v>-0.98677168999999998</v>
+      </c>
+      <c r="D30">
+        <v>-1.4408494599999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="P30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>3.2937205899999999</v>
+      </c>
+      <c r="C31">
+        <v>0.63657680999999999</v>
+      </c>
+      <c r="D31">
+        <v>2.3144055699999999</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>3.1575887100000002</v>
+      </c>
+      <c r="C32">
+        <v>1.70162334</v>
+      </c>
+      <c r="D32">
+        <v>2.1194169999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>4.3298833999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.48817368999999999</v>
+      </c>
+      <c r="D33">
+        <v>2.6363900600000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" t="s">
+        <v>228</v>
+      </c>
+      <c r="P33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2.6346573100000001</v>
+      </c>
+      <c r="C34">
+        <v>0.35726848999999999</v>
+      </c>
+      <c r="D34">
+        <v>3.14056202</v>
+      </c>
+      <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" t="s">
+        <v>229</v>
+      </c>
+      <c r="P34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2.9983885199999998</v>
+      </c>
+      <c r="C35">
+        <v>-0.20076206999999999</v>
+      </c>
+      <c r="D35">
+        <v>1.0792377099999999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" t="s">
+        <v>230</v>
+      </c>
+      <c r="P35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>3.82464103</v>
+      </c>
+      <c r="C36">
+        <v>0.26684225</v>
+      </c>
+      <c r="D36">
+        <v>-0.1171201</v>
+      </c>
+      <c r="F36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s">
+        <v>231</v>
+      </c>
+      <c r="P36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>3.6718260300000001</v>
+      </c>
+      <c r="C37">
+        <v>-0.39571588000000002</v>
+      </c>
+      <c r="D37">
+        <v>-0.97414729</v>
+      </c>
+      <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" t="s">
+        <v>232</v>
+      </c>
+      <c r="P37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>4.8928892299999998</v>
+      </c>
+      <c r="C38">
+        <v>0.27347111000000002</v>
+      </c>
+      <c r="D38">
+        <v>0.12424092</v>
+      </c>
+      <c r="F38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" t="s">
+        <v>233</v>
+      </c>
+      <c r="P38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>3.5335902199999998</v>
+      </c>
+      <c r="C39">
+        <v>1.27579295</v>
+      </c>
+      <c r="D39">
+        <v>-0.41912891000000002</v>
+      </c>
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" t="s">
+        <v>234</v>
+      </c>
+      <c r="P39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>3.2125176099999999</v>
+      </c>
+      <c r="C40">
+        <v>-1.69851982</v>
+      </c>
+      <c r="D40">
+        <v>1.3561398499999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>235</v>
+      </c>
+      <c r="K40" t="s">
+        <v>235</v>
+      </c>
+      <c r="P40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>4.1043784600000004</v>
+      </c>
+      <c r="C41">
+        <v>-2.1141078000000002</v>
+      </c>
+      <c r="D41">
+        <v>0.88339460999999997</v>
+      </c>
+      <c r="F41" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" t="s">
+        <v>236</v>
+      </c>
+      <c r="P41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>3.2336552900000002</v>
+      </c>
+      <c r="C42">
+        <v>-1.9278925600000001</v>
+      </c>
+      <c r="D42">
+        <v>2.4270357699999998</v>
+      </c>
+      <c r="F42" t="s">
+        <v>237</v>
+      </c>
+      <c r="K42" t="s">
+        <v>237</v>
+      </c>
+      <c r="P42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>1.1590300200000001</v>
+      </c>
+      <c r="C43">
+        <v>-1.3802196200000001</v>
+      </c>
+      <c r="D43">
+        <v>0.53258587999999996</v>
+      </c>
+      <c r="F43" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" t="s">
+        <v>238</v>
+      </c>
+      <c r="P43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>-0.51999039999999996</v>
+      </c>
+      <c r="C44">
+        <v>-3.4218376300000002</v>
+      </c>
+      <c r="D44">
+        <v>-6.233851E-2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>239</v>
+      </c>
+      <c r="K44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>-0.89046018000000005</v>
+      </c>
+      <c r="C45">
+        <v>-4.1741158699999996</v>
+      </c>
+      <c r="D45">
+        <v>-1.1826825599999999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>240</v>
+      </c>
+      <c r="K45" t="s">
+        <v>240</v>
+      </c>
+      <c r="P45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>-1.02570988</v>
+      </c>
+      <c r="C46">
+        <v>-3.68213517</v>
+      </c>
+      <c r="D46">
+        <v>-2.1386323900000002</v>
+      </c>
+      <c r="F46" t="s">
+        <v>241</v>
+      </c>
+      <c r="K46" t="s">
+        <v>241</v>
+      </c>
+      <c r="P46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>-1.08971493</v>
+      </c>
+      <c r="C47">
+        <v>-5.5516549199999998</v>
+      </c>
+      <c r="D47">
+        <v>-1.11062255</v>
+      </c>
+      <c r="F47" t="s">
+        <v>242</v>
+      </c>
+      <c r="K47" t="s">
+        <v>242</v>
+      </c>
+      <c r="P47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>-1.37601489</v>
+      </c>
+      <c r="C48">
+        <v>-6.09995098</v>
+      </c>
+      <c r="D48">
+        <v>-2.0048662300000002</v>
+      </c>
+      <c r="F48" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48" t="s">
+        <v>243</v>
+      </c>
+      <c r="P48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>-0.9261568</v>
+      </c>
+      <c r="C49">
+        <v>-6.2236605599999999</v>
+      </c>
+      <c r="D49">
+        <v>9.2842430000000004E-2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>244</v>
+      </c>
+      <c r="K49" t="s">
+        <v>244</v>
+      </c>
+      <c r="P49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>-1.08049076</v>
+      </c>
+      <c r="C50">
+        <v>-7.2978599700000002</v>
+      </c>
+      <c r="D50">
+        <v>0.15070475999999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>245</v>
+      </c>
+      <c r="K50" t="s">
+        <v>245</v>
+      </c>
+      <c r="P50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>-0.56161804000000004</v>
+      </c>
+      <c r="C51">
+        <v>-5.5010464900000002</v>
+      </c>
+      <c r="D51">
+        <v>1.2248054399999999</v>
+      </c>
+      <c r="F51" t="s">
+        <v>246</v>
+      </c>
+      <c r="K51" t="s">
+        <v>246</v>
+      </c>
+      <c r="P51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>-0.43036148000000002</v>
+      </c>
+      <c r="C52">
+        <v>-6.0094153700000001</v>
+      </c>
+      <c r="D52">
+        <v>2.1768264400000001</v>
+      </c>
+      <c r="F52" t="s">
+        <v>247</v>
+      </c>
+      <c r="K52" t="s">
+        <v>247</v>
+      </c>
+      <c r="P52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>-0.36559821999999997</v>
+      </c>
+      <c r="C53">
+        <v>-4.1291235100000003</v>
+      </c>
+      <c r="D53">
+        <v>1.1395707500000001</v>
+      </c>
+      <c r="F53" t="s">
+        <v>248</v>
+      </c>
+      <c r="K53" t="s">
+        <v>248</v>
+      </c>
+      <c r="P53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>-8.1234150000000005E-2</v>
+      </c>
+      <c r="C54">
+        <v>-3.5922666099999998</v>
+      </c>
+      <c r="D54">
+        <v>2.04220259</v>
+      </c>
+      <c r="F54" t="s">
+        <v>249</v>
+      </c>
+      <c r="K54" t="s">
+        <v>249</v>
+      </c>
+      <c r="P54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.27978106000000003</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2.7561179099999999</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1.6492811199999999</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="K55" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="P55" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="6">
+        <v>-0.64361374999999998</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3.0675661600000002</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2.1428520600000001</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="K56" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="P56" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1.07797371</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2.6340478699999998</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2.38262792</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="K57" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="P57" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.61625132000000005</v>
+      </c>
+      <c r="C58" s="6">
+        <v>3.5982463999999998</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.50504998999999995</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="P58" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6">
+        <v>-0.39609545000000002</v>
+      </c>
+      <c r="C59" s="6">
+        <v>4.2214214500000002</v>
+      </c>
+      <c r="D59" s="6">
+        <v>-0.26517851999999997</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="K59" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="P59" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="6">
+        <v>-1.42613089</v>
+      </c>
+      <c r="C60" s="6">
+        <v>4.1613802499999997</v>
+      </c>
+      <c r="D60" s="6">
+        <v>7.9842129999999997E-2</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="K60" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="P60" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6">
+        <v>-9.8754400000000006E-2</v>
+      </c>
+      <c r="C61" s="6">
+        <v>4.9578781200000002</v>
+      </c>
+      <c r="D61" s="6">
+        <v>-1.4025905599999999</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="K61" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="P61" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="6">
+        <v>-0.90107378000000005</v>
+      </c>
+      <c r="C62" s="6">
+        <v>5.4459774400000001</v>
+      </c>
+      <c r="D62" s="6">
+        <v>-1.9495838000000001</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="K62" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="P62" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6">
+        <v>1.2184429800000001</v>
+      </c>
+      <c r="C63" s="6">
+        <v>5.0893853699999996</v>
+      </c>
+      <c r="D63" s="6">
+        <v>-1.8369052699999999</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="K63" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="P63" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1.45116925</v>
+      </c>
+      <c r="C64" s="6">
+        <v>5.6734304299999998</v>
+      </c>
+      <c r="D64" s="6">
+        <v>-2.7218331199999999</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="K64" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="P64" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="6">
+        <v>2.23141743</v>
+      </c>
+      <c r="C65" s="6">
+        <v>4.4640636599999999</v>
+      </c>
+      <c r="D65" s="6">
+        <v>-1.1171684</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="K65" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="P65" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="6">
+        <v>3.2645103799999999</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4.5617077699999999</v>
+      </c>
+      <c r="D66" s="6">
+        <v>-1.4398491499999999</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="K66" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="P66" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1.9379836800000001</v>
+      </c>
+      <c r="C67" s="6">
+        <v>3.7264337799999998</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2.2798840000000001E-2</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="K67" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="P67" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="6">
+        <v>2.7488137199999998</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3.28943553</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.59797171000000005</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="K68" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="P68" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>-1.4670704000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.19585760999999999</v>
+      </c>
+      <c r="D69">
+        <v>1.1050858699999999</v>
+      </c>
+      <c r="F69" t="s">
+        <v>264</v>
+      </c>
+      <c r="K69" t="s">
+        <v>264</v>
+      </c>
+      <c r="P69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>-0.27456888000000002</v>
+      </c>
+      <c r="C70">
+        <v>0.29352719999999999</v>
+      </c>
+      <c r="D70">
+        <v>-1.46418381</v>
+      </c>
+      <c r="F70" t="s">
+        <v>265</v>
+      </c>
+      <c r="K70" t="s">
+        <v>265</v>
+      </c>
+      <c r="P70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>1.56698062</v>
+      </c>
+      <c r="C71">
+        <v>-0.17029783000000001</v>
+      </c>
+      <c r="D71">
+        <v>0.71056412000000002</v>
+      </c>
+      <c r="F71" t="s">
+        <v>266</v>
+      </c>
+      <c r="K71" t="s">
+        <v>266</v>
+      </c>
+      <c r="P71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>-0.56461344000000002</v>
+      </c>
+      <c r="C72">
+        <v>-1.5685956700000001</v>
+      </c>
+      <c r="D72">
+        <v>-2.6399185699999999</v>
+      </c>
+      <c r="F72" t="s">
+        <v>267</v>
+      </c>
+      <c r="K72" t="s">
+        <v>267</v>
+      </c>
+      <c r="P72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>-2.41878927</v>
+      </c>
+      <c r="C73">
+        <v>-1.78692951</v>
+      </c>
+      <c r="D73">
+        <v>1.4160822900000001</v>
+      </c>
+      <c r="F73" t="s">
+        <v>268</v>
+      </c>
+      <c r="K73" t="s">
+        <v>268</v>
+      </c>
+      <c r="P73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>2.0634775799999998</v>
+      </c>
+      <c r="C74">
+        <v>-2.33967167</v>
+      </c>
+      <c r="D74">
+        <v>0.79187686999999995</v>
+      </c>
+      <c r="F74" t="s">
+        <v>269</v>
+      </c>
+      <c r="K74" t="s">
+        <v>269</v>
+      </c>
+      <c r="P74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>